--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
+    <t>codeforiati:category-code</t>
   </si>
   <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Educación</t>
+  </si>
+  <si>
     <t>Educación, nivel no especificado</t>
   </si>
   <si>
-    <t>Educación</t>
+    <t>111</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Gestión administrativa y políticas de la salud</t>
   </si>
   <si>
+    <t>Salud</t>
+  </si>
+  <si>
     <t>Salud, general</t>
   </si>
   <si>
-    <t>Salud</t>
+    <t>121</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Gestión administrativa y políticas del sector público</t>
   </si>
   <si>
+    <t>Gobierno y sociedad civil</t>
+  </si>
+  <si>
     <t>Gobierno y sociedad civil, general</t>
   </si>
   <si>
-    <t>Gobierno y sociedad civil</t>
+    <t>151</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Gestión administrativa y políticas de la energía</t>
   </si>
   <si>
+    <t>Energía</t>
+  </si>
+  <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>Energía</t>
+    <t>231</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Gestión administrativa y políticas agrícolas</t>
   </si>
   <si>
+    <t>Agricultura, Silvicultura, Pesca</t>
+  </si>
+  <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>Agricultura, Silvicultura, Pesca</t>
+    <t>311</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1189,16 +1189,16 @@
     <t>Gestión administrativa y políticas industriales</t>
   </si>
   <si>
+    <t>Industria, extractivas, construcción</t>
+  </si>
+  <si>
     <t>Industria</t>
   </si>
   <si>
-    <t>Industria, extractivas, construcción</t>
+    <t>321</t>
   </si>
   <si>
     <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
   </si>
   <si>
     <t>32120</t>
@@ -2190,16 +2190,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2213,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2236,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2259,16 +2259,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2282,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2305,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2328,16 +2328,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2351,16 +2351,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2374,16 +2374,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2397,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2420,16 +2420,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2535,16 +2535,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2558,16 +2558,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2581,16 +2581,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2604,16 +2604,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2627,16 +2627,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2650,16 +2650,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2673,16 +2673,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2693,16 +2693,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2716,16 +2716,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2739,16 +2739,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2762,16 +2762,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2785,16 +2785,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2808,16 +2808,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>81</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2831,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2854,16 +2854,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>81</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3613,16 +3613,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
         <v>167</v>
       </c>
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3636,16 +3636,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
         <v>167</v>
       </c>
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3659,16 +3659,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
         <v>167</v>
       </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3682,16 +3682,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
         <v>167</v>
       </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3705,16 +3705,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
         <v>167</v>
       </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3728,16 +3728,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4349,16 +4349,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" t="s">
         <v>243</v>
       </c>
-      <c r="E100" t="s">
-        <v>232</v>
-      </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4372,16 +4372,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
         <v>243</v>
       </c>
-      <c r="E101" t="s">
-        <v>232</v>
-      </c>
       <c r="F101" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4395,16 +4395,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" t="s">
         <v>243</v>
       </c>
-      <c r="E102" t="s">
-        <v>232</v>
-      </c>
       <c r="F102" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4418,16 +4418,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" t="s">
         <v>243</v>
       </c>
-      <c r="E103" t="s">
-        <v>232</v>
-      </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4441,16 +4441,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
         <v>243</v>
       </c>
-      <c r="E104" t="s">
-        <v>232</v>
-      </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4464,16 +4464,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" t="s">
         <v>243</v>
       </c>
-      <c r="E105" t="s">
-        <v>232</v>
-      </c>
       <c r="F105" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4487,16 +4487,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" t="s">
         <v>243</v>
       </c>
-      <c r="E106" t="s">
-        <v>232</v>
-      </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4510,16 +4510,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" t="s">
         <v>243</v>
       </c>
-      <c r="E107" t="s">
-        <v>232</v>
-      </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4533,16 +4533,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
         <v>243</v>
       </c>
-      <c r="E108" t="s">
-        <v>232</v>
-      </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4556,16 +4556,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" t="s">
         <v>263</v>
       </c>
-      <c r="E109" t="s">
-        <v>232</v>
-      </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4579,16 +4579,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
         <v>263</v>
       </c>
-      <c r="E110" t="s">
-        <v>232</v>
-      </c>
       <c r="F110" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4602,16 +4602,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
         <v>263</v>
       </c>
-      <c r="E111" t="s">
-        <v>232</v>
-      </c>
       <c r="F111" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4625,16 +4625,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
         <v>263</v>
       </c>
-      <c r="E112" t="s">
-        <v>232</v>
-      </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4648,16 +4648,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
         <v>263</v>
       </c>
-      <c r="E113" t="s">
-        <v>232</v>
-      </c>
       <c r="F113" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4671,16 +4671,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
         <v>263</v>
       </c>
-      <c r="E114" t="s">
-        <v>232</v>
-      </c>
       <c r="F114" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4694,16 +4694,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" t="s">
-        <v>232</v>
-      </c>
       <c r="F115" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4717,16 +4717,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
         <v>281</v>
       </c>
-      <c r="E116" t="s">
-        <v>232</v>
-      </c>
       <c r="F116" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="G116" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4740,16 +4740,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
         <v>285</v>
       </c>
-      <c r="E117" t="s">
-        <v>232</v>
-      </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4763,16 +4763,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
         <v>285</v>
       </c>
-      <c r="E118" t="s">
-        <v>232</v>
-      </c>
       <c r="F118" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4786,16 +4786,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
         <v>285</v>
       </c>
-      <c r="E119" t="s">
-        <v>232</v>
-      </c>
       <c r="F119" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4809,16 +4809,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
         <v>285</v>
       </c>
-      <c r="E120" t="s">
-        <v>232</v>
-      </c>
       <c r="F120" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4832,16 +4832,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" t="s">
         <v>285</v>
       </c>
-      <c r="E121" t="s">
-        <v>232</v>
-      </c>
       <c r="F121" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4855,16 +4855,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
         <v>285</v>
       </c>
-      <c r="E122" t="s">
-        <v>232</v>
-      </c>
       <c r="F122" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4878,16 +4878,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
         <v>285</v>
       </c>
-      <c r="E123" t="s">
-        <v>232</v>
-      </c>
       <c r="F123" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5545,16 +5545,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
         <v>365</v>
       </c>
-      <c r="E152" t="s">
-        <v>326</v>
-      </c>
       <c r="F152" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5568,16 +5568,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
         <v>365</v>
       </c>
-      <c r="E153" t="s">
-        <v>326</v>
-      </c>
       <c r="F153" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5591,16 +5591,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
       </c>
-      <c r="E154" t="s">
-        <v>326</v>
-      </c>
       <c r="F154" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5614,16 +5614,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
         <v>365</v>
       </c>
-      <c r="E155" t="s">
-        <v>326</v>
-      </c>
       <c r="F155" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5637,16 +5637,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
         <v>365</v>
       </c>
-      <c r="E156" t="s">
-        <v>326</v>
-      </c>
       <c r="F156" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5660,16 +5660,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
         <v>365</v>
       </c>
-      <c r="E157" t="s">
-        <v>326</v>
-      </c>
       <c r="F157" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5683,16 +5683,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
         <v>379</v>
       </c>
-      <c r="E158" t="s">
-        <v>326</v>
-      </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5706,16 +5706,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
       </c>
-      <c r="E159" t="s">
-        <v>326</v>
-      </c>
       <c r="F159" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5729,16 +5729,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
         <v>379</v>
       </c>
-      <c r="E160" t="s">
-        <v>326</v>
-      </c>
       <c r="F160" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5752,16 +5752,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
         <v>379</v>
       </c>
-      <c r="E161" t="s">
-        <v>326</v>
-      </c>
       <c r="F161" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5775,16 +5775,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
         <v>379</v>
       </c>
-      <c r="E162" t="s">
-        <v>326</v>
-      </c>
       <c r="F162" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6235,16 +6235,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" t="s">
         <v>433</v>
       </c>
-      <c r="E182" t="s">
-        <v>392</v>
-      </c>
       <c r="F182" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6258,16 +6258,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" t="s">
         <v>433</v>
       </c>
-      <c r="E183" t="s">
-        <v>392</v>
-      </c>
       <c r="F183" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6281,16 +6281,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" t="s">
         <v>433</v>
       </c>
-      <c r="E184" t="s">
-        <v>392</v>
-      </c>
       <c r="F184" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6304,16 +6304,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" t="s">
         <v>433</v>
       </c>
-      <c r="E185" t="s">
-        <v>392</v>
-      </c>
       <c r="F185" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6327,16 +6327,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
         <v>433</v>
       </c>
-      <c r="E186" t="s">
-        <v>392</v>
-      </c>
       <c r="F186" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6350,16 +6350,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
         <v>433</v>
       </c>
-      <c r="E187" t="s">
-        <v>392</v>
-      </c>
       <c r="F187" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6373,16 +6373,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" t="s">
         <v>433</v>
       </c>
-      <c r="E188" t="s">
-        <v>392</v>
-      </c>
       <c r="F188" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6396,16 +6396,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" t="s">
         <v>433</v>
       </c>
-      <c r="E189" t="s">
-        <v>392</v>
-      </c>
       <c r="F189" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6419,16 +6419,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" t="s">
         <v>433</v>
       </c>
-      <c r="E190" t="s">
-        <v>392</v>
-      </c>
       <c r="F190" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6442,16 +6442,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
         <v>433</v>
       </c>
-      <c r="E191" t="s">
-        <v>392</v>
-      </c>
       <c r="F191" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6465,16 +6465,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
         <v>455</v>
       </c>
-      <c r="E192" t="s">
-        <v>392</v>
-      </c>
       <c r="F192" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Educación</t>
   </si>
   <si>
     <t>Educación, nivel no especificado</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Educación primaria</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Educación básica</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Educación secundaria superior (modificada, incluye datos de 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Educación secundaria</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Educación superior</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Educación post-secundaria</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Gestión administrativa y políticas de la salud</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Salud</t>
   </si>
   <si>
     <t>Salud, general</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Atención sanitaria básica</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Salud básica</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Lucha contra enfermedades no transmisibles, general</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Enfermedades no transmisibles</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Gestión administrativa y políticas en materia demográfica</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Programas/políticas sobre población y salud reproductiva</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Gestión administrativa y políticas del sector del agua</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Abastecimiento de agua y saneamiento</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,15 +409,15 @@
     <t>Gestión administrativa y políticas del sector público</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Gobierno y sociedad civil</t>
   </si>
   <si>
     <t>Gobierno y sociedad civil, general</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestión y reforma del sistema de seguridad</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Prevención y resolución de conflictos, paz y seguridad</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Protección social</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Otros servicios e infraestructuras sociales</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Gestión administrativa y políticas del transporte</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transporte y almacenamiento</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Gestión administrativa y políticas de las comunicaciones</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Comunicaciones</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,15 +709,15 @@
     <t>Gestión administrativa y políticas de la energía</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Energía</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Generación de energía, fuentes renovables: múltiples tecnologías</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Generación de energía, fuentes renovables</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Generación de energía, fuentes no renovables, sin especificar</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Generación de energía, fuentes no renovables</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrales eléctricas de energía híbrida</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Centrales de energía híbrida</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrales eléctricas de energía nuclear y seguridad nuclear</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Centrales de energía nuclear</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrales de producción de calor</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Distribución de la energía</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Gestión administrativa y políticas financieras</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Servicios bancarios y financieros</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Políticas y administración empresariales</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Empresas y otros servicios</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,15 +991,15 @@
     <t>Gestión administrativa y políticas agrícolas</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Gestión administrativa y políticas forestales</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Silvicultura</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Gestión administrativa y políticas pesqueras</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Pesca</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,15 +1189,15 @@
     <t>Gestión administrativa y políticas industriales</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Industria, extractivas, construcción</t>
   </si>
   <si>
     <t>Industria</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Gestión administrativa y políticas mineras o minerales</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Industrias extractivas</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Gestión administrativa y políticas de la construcción</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construcción</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del comercio</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Política y regulación comercial</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Gestión administrativa y políticas del turismo</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Turismo</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del medio ambiente</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Protección general medio ambiente</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Asistencia multisectorial</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Otras acciones multisectoriales</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Asistencia relacionada con el apoyo presupuestario general</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Apoyo presupuestario general</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Asistencia alimentaria</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Ayuda alimentaria para el desarrollo</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoyo a importaciones (bienes de capital)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Otras ayudas en forma de suministro de bienes</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Acciones relativas a la deuda</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Actividades relacionadas con la deuda</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Asistencia y servicios de socorro material</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Ayuda de emergencia</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstrucción y rehabilitación inmediata posemergencias</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Ayuda a la reconstrucción y a la rehabilitación</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparación de respuesta multirriesgos</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prevención de desastres</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Costos administrativos (no asignable por sectores)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Costes administrativos donantes</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados o solicitantes de asilo en países donantes (no asignable por sectores)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Ayuda a refugiados en el país donante</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectores no especificados</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Sin especificación / no clasificados</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2213,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2236,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2259,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2282,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2305,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2328,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2351,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -2374,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2397,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -2420,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>63</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -2693,10 +2693,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -2716,10 +2716,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -2739,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>82</v>
@@ -2762,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -2785,10 +2785,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>82</v>
@@ -2808,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
@@ -2831,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>82</v>
@@ -2854,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>82</v>
@@ -2880,13 +2880,13 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2903,13 +2903,13 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2926,13 +2926,13 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2949,13 +2949,13 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2972,13 +2972,13 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2995,13 +2995,13 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3018,13 +3018,13 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3041,13 +3041,13 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3064,13 +3064,13 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3087,13 +3087,13 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3110,13 +3110,13 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3133,13 +3133,13 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3156,13 +3156,13 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3179,13 +3179,13 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3202,13 +3202,13 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3225,13 +3225,13 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3613,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>168</v>
@@ -3636,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>168</v>
@@ -3659,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>168</v>
@@ -3682,10 +3682,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>168</v>
@@ -3705,10 +3705,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>168</v>
@@ -3728,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>168</v>
@@ -3754,13 +3754,13 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
         <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3777,13 +3777,13 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F75" t="s">
         <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3800,13 +3800,13 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
         <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3823,13 +3823,13 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3846,13 +3846,13 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3869,13 +3869,13 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F79" t="s">
         <v>182</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3892,13 +3892,13 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
         <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3915,13 +3915,13 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
         <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3938,13 +3938,13 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F82" t="s">
         <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3961,13 +3961,13 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F83" t="s">
         <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3984,13 +3984,13 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F84" t="s">
         <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4007,13 +4007,13 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4030,13 +4030,13 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
         <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4053,13 +4053,13 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4076,13 +4076,13 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4099,13 +4099,13 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4122,13 +4122,13 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4145,13 +4145,13 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4168,13 +4168,13 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
         <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4191,13 +4191,13 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F93" t="s">
         <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4214,13 +4214,13 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4237,13 +4237,13 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
         <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4349,10 +4349,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>244</v>
@@ -4372,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>244</v>
@@ -4395,10 +4395,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>244</v>
@@ -4418,10 +4418,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>244</v>
@@ -4441,10 +4441,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>244</v>
@@ -4464,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>244</v>
@@ -4487,10 +4487,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>244</v>
@@ -4510,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>244</v>
@@ -4533,10 +4533,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>244</v>
@@ -4556,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>264</v>
@@ -4579,10 +4579,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>264</v>
@@ -4602,10 +4602,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>264</v>
@@ -4625,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>264</v>
@@ -4648,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>264</v>
@@ -4671,10 +4671,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>264</v>
@@ -4694,10 +4694,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>278</v>
@@ -4717,10 +4717,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>282</v>
@@ -4740,10 +4740,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>286</v>
@@ -4763,10 +4763,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>286</v>
@@ -4786,10 +4786,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>286</v>
@@ -4809,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>286</v>
@@ -4832,10 +4832,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -4855,10 +4855,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>286</v>
@@ -4878,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>286</v>
@@ -4904,13 +4904,13 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F124" t="s">
         <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4927,13 +4927,13 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F125" t="s">
         <v>302</v>
       </c>
       <c r="G125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4950,13 +4950,13 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F126" t="s">
         <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4973,13 +4973,13 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F127" t="s">
         <v>302</v>
       </c>
       <c r="G127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4996,13 +4996,13 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F128" t="s">
         <v>302</v>
       </c>
       <c r="G128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5019,13 +5019,13 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F129" t="s">
         <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5042,13 +5042,13 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F130" t="s">
         <v>316</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5065,13 +5065,13 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F131" t="s">
         <v>316</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5088,13 +5088,13 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F132" t="s">
         <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5111,13 +5111,13 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F133" t="s">
         <v>316</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5545,10 +5545,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>366</v>
@@ -5568,10 +5568,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>366</v>
@@ -5591,10 +5591,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>366</v>
@@ -5614,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>366</v>
@@ -5637,10 +5637,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>366</v>
@@ -5660,10 +5660,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>366</v>
@@ -5683,10 +5683,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>380</v>
@@ -5706,10 +5706,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>380</v>
@@ -5729,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>380</v>
@@ -5752,10 +5752,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>380</v>
@@ -5775,10 +5775,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>380</v>
@@ -6235,10 +6235,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>434</v>
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>434</v>
@@ -6281,10 +6281,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>434</v>
@@ -6304,10 +6304,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>434</v>
@@ -6327,10 +6327,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>434</v>
@@ -6350,10 +6350,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>434</v>
@@ -6373,10 +6373,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>434</v>
@@ -6396,10 +6396,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>434</v>
@@ -6419,10 +6419,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>434</v>
@@ -6442,10 +6442,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>434</v>
@@ -6465,10 +6465,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>456</v>
@@ -6491,13 +6491,13 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F193" t="s">
         <v>460</v>
       </c>
       <c r="G193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6514,13 +6514,13 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F194" t="s">
         <v>460</v>
       </c>
       <c r="G194" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6537,13 +6537,13 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F195" t="s">
         <v>460</v>
       </c>
       <c r="G195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6560,13 +6560,13 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F196" t="s">
         <v>460</v>
       </c>
       <c r="G196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6583,13 +6583,13 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F197" t="s">
         <v>460</v>
       </c>
       <c r="G197" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6606,13 +6606,13 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F198" t="s">
         <v>460</v>
       </c>
       <c r="G198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6629,13 +6629,13 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F199" t="s">
         <v>474</v>
       </c>
       <c r="G199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6652,13 +6652,13 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F200" t="s">
         <v>478</v>
       </c>
       <c r="G200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6675,13 +6675,13 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F201" t="s">
         <v>478</v>
       </c>
       <c r="G201" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6698,13 +6698,13 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F202" t="s">
         <v>478</v>
       </c>
       <c r="G202" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6721,13 +6721,13 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F203" t="s">
         <v>478</v>
       </c>
       <c r="G203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6744,13 +6744,13 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F204" t="s">
         <v>478</v>
       </c>
       <c r="G204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6767,13 +6767,13 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F205" t="s">
         <v>478</v>
       </c>
       <c r="G205" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6790,13 +6790,13 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F206" t="s">
         <v>492</v>
       </c>
       <c r="G206" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6813,13 +6813,13 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F207" t="s">
         <v>492</v>
       </c>
       <c r="G207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6836,13 +6836,13 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F208" t="s">
         <v>492</v>
       </c>
       <c r="G208" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6859,13 +6859,13 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F209" t="s">
         <v>492</v>
       </c>
       <c r="G209" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6882,13 +6882,13 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F210" t="s">
         <v>492</v>
       </c>
       <c r="G210" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6905,13 +6905,13 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F211" t="s">
         <v>492</v>
       </c>
       <c r="G211" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6928,13 +6928,13 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F212" t="s">
         <v>492</v>
       </c>
       <c r="G212" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6951,13 +6951,13 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F213" t="s">
         <v>492</v>
       </c>
       <c r="G213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6974,13 +6974,13 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F214" t="s">
         <v>492</v>
       </c>
       <c r="G214" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6997,13 +6997,13 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F215" t="s">
         <v>492</v>
       </c>
       <c r="G215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7020,13 +7020,13 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F216" t="s">
         <v>514</v>
       </c>
       <c r="G216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7043,13 +7043,13 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F217" t="s">
         <v>518</v>
       </c>
       <c r="G217" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7066,13 +7066,13 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F218" t="s">
         <v>522</v>
       </c>
       <c r="G218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7089,13 +7089,13 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F219" t="s">
         <v>522</v>
       </c>
       <c r="G219" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7112,13 +7112,13 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F220" t="s">
         <v>528</v>
       </c>
       <c r="G220" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7135,13 +7135,13 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F221" t="s">
         <v>528</v>
       </c>
       <c r="G221" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7158,13 +7158,13 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F222" t="s">
         <v>528</v>
       </c>
       <c r="G222" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7181,13 +7181,13 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F223" t="s">
         <v>528</v>
       </c>
       <c r="G223" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7204,13 +7204,13 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F224" t="s">
         <v>528</v>
       </c>
       <c r="G224" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7227,13 +7227,13 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F225" t="s">
         <v>528</v>
       </c>
       <c r="G225" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7250,13 +7250,13 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F226" t="s">
         <v>528</v>
       </c>
       <c r="G226" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7273,13 +7273,13 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F227" t="s">
         <v>544</v>
       </c>
       <c r="G227" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7296,13 +7296,13 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F228" t="s">
         <v>544</v>
       </c>
       <c r="G228" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7319,13 +7319,13 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F229" t="s">
         <v>544</v>
       </c>
       <c r="G229" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7342,13 +7342,13 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F230" t="s">
         <v>552</v>
       </c>
       <c r="G230" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7365,13 +7365,13 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F231" t="s">
         <v>556</v>
       </c>
       <c r="G231" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7388,13 +7388,13 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F232" t="s">
         <v>560</v>
       </c>
       <c r="G232" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7411,13 +7411,13 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F233" t="s">
         <v>564</v>
       </c>
       <c r="G233" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7434,13 +7434,13 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F234" t="s">
         <v>568</v>
       </c>
       <c r="G234" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7457,13 +7457,13 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F235" t="s">
         <v>568</v>
       </c>
       <c r="G235" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educación</t>
   </si>
   <si>
     <t>Educación, nivel no especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Salud</t>
   </si>
   <si>
     <t>Salud, general</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Gobierno y sociedad civil</t>
   </si>
   <si>
     <t>Gobierno y sociedad civil, general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energía</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,13 +1192,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industria, extractivas, construcción</t>
   </si>
   <si>
     <t>Industria</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>32120</t>
@@ -2196,10 +2196,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2219,10 +2219,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2242,10 +2242,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2265,10 +2265,10 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2288,10 +2288,10 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2311,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2334,10 +2334,10 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2357,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2380,10 +2380,10 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2426,10 +2426,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2541,10 +2541,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2564,10 +2564,10 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2587,10 +2587,10 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2610,10 +2610,10 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2633,10 +2633,10 @@
         <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2656,10 +2656,10 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2679,10 +2679,10 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2699,10 +2699,10 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2722,10 +2722,10 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2745,10 +2745,10 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
         <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2768,10 +2768,10 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
         <v>82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2791,10 +2791,10 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
         <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2814,10 +2814,10 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
         <v>82</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
         <v>82</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2860,10 +2860,10 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
         <v>82</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2880,13 +2880,13 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2903,13 +2903,13 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2926,13 +2926,13 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2949,13 +2949,13 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2972,13 +2972,13 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2995,13 +2995,13 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3018,13 +3018,13 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3041,13 +3041,13 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3064,13 +3064,13 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3087,13 +3087,13 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3110,13 +3110,13 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3133,13 +3133,13 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3156,13 +3156,13 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3179,13 +3179,13 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3202,13 +3202,13 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3225,13 +3225,13 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3619,10 +3619,10 @@
         <v>132</v>
       </c>
       <c r="F68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" t="s">
         <v>168</v>
-      </c>
-      <c r="G68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3642,10 +3642,10 @@
         <v>132</v>
       </c>
       <c r="F69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" t="s">
         <v>168</v>
-      </c>
-      <c r="G69" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3665,10 +3665,10 @@
         <v>132</v>
       </c>
       <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
         <v>168</v>
-      </c>
-      <c r="G70" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3688,10 +3688,10 @@
         <v>132</v>
       </c>
       <c r="F71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" t="s">
         <v>168</v>
-      </c>
-      <c r="G71" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3711,10 +3711,10 @@
         <v>132</v>
       </c>
       <c r="F72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" t="s">
         <v>168</v>
-      </c>
-      <c r="G72" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3734,10 +3734,10 @@
         <v>132</v>
       </c>
       <c r="F73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" t="s">
         <v>168</v>
-      </c>
-      <c r="G73" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3754,13 +3754,13 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
         <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3777,13 +3777,13 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
         <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3800,13 +3800,13 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
         <v>182</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3823,13 +3823,13 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3846,13 +3846,13 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3869,13 +3869,13 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
         <v>182</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3892,13 +3892,13 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
         <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3915,13 +3915,13 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
         <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3938,13 +3938,13 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
         <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3961,13 +3961,13 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
         <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3984,13 +3984,13 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
         <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4007,13 +4007,13 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F85" t="s">
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4030,13 +4030,13 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
         <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4053,13 +4053,13 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4076,13 +4076,13 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4099,13 +4099,13 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4122,13 +4122,13 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4145,13 +4145,13 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" t="s">
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4168,13 +4168,13 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" t="s">
         <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4191,13 +4191,13 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F93" t="s">
         <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4214,13 +4214,13 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s">
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4237,13 +4237,13 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
         <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4355,10 +4355,10 @@
         <v>232</v>
       </c>
       <c r="F100" t="s">
+        <v>233</v>
+      </c>
+      <c r="G100" t="s">
         <v>244</v>
-      </c>
-      <c r="G100" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4378,10 +4378,10 @@
         <v>232</v>
       </c>
       <c r="F101" t="s">
+        <v>233</v>
+      </c>
+      <c r="G101" t="s">
         <v>244</v>
-      </c>
-      <c r="G101" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4401,10 +4401,10 @@
         <v>232</v>
       </c>
       <c r="F102" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" t="s">
         <v>244</v>
-      </c>
-      <c r="G102" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4424,10 +4424,10 @@
         <v>232</v>
       </c>
       <c r="F103" t="s">
+        <v>233</v>
+      </c>
+      <c r="G103" t="s">
         <v>244</v>
-      </c>
-      <c r="G103" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4447,10 +4447,10 @@
         <v>232</v>
       </c>
       <c r="F104" t="s">
+        <v>233</v>
+      </c>
+      <c r="G104" t="s">
         <v>244</v>
-      </c>
-      <c r="G104" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4470,10 +4470,10 @@
         <v>232</v>
       </c>
       <c r="F105" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" t="s">
         <v>244</v>
-      </c>
-      <c r="G105" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4493,10 +4493,10 @@
         <v>232</v>
       </c>
       <c r="F106" t="s">
+        <v>233</v>
+      </c>
+      <c r="G106" t="s">
         <v>244</v>
-      </c>
-      <c r="G106" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4516,10 +4516,10 @@
         <v>232</v>
       </c>
       <c r="F107" t="s">
+        <v>233</v>
+      </c>
+      <c r="G107" t="s">
         <v>244</v>
-      </c>
-      <c r="G107" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4539,10 +4539,10 @@
         <v>232</v>
       </c>
       <c r="F108" t="s">
+        <v>233</v>
+      </c>
+      <c r="G108" t="s">
         <v>244</v>
-      </c>
-      <c r="G108" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4562,10 +4562,10 @@
         <v>232</v>
       </c>
       <c r="F109" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" t="s">
         <v>264</v>
-      </c>
-      <c r="G109" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4585,10 +4585,10 @@
         <v>232</v>
       </c>
       <c r="F110" t="s">
+        <v>233</v>
+      </c>
+      <c r="G110" t="s">
         <v>264</v>
-      </c>
-      <c r="G110" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4608,10 +4608,10 @@
         <v>232</v>
       </c>
       <c r="F111" t="s">
+        <v>233</v>
+      </c>
+      <c r="G111" t="s">
         <v>264</v>
-      </c>
-      <c r="G111" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4631,10 +4631,10 @@
         <v>232</v>
       </c>
       <c r="F112" t="s">
+        <v>233</v>
+      </c>
+      <c r="G112" t="s">
         <v>264</v>
-      </c>
-      <c r="G112" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4654,10 +4654,10 @@
         <v>232</v>
       </c>
       <c r="F113" t="s">
+        <v>233</v>
+      </c>
+      <c r="G113" t="s">
         <v>264</v>
-      </c>
-      <c r="G113" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4677,10 +4677,10 @@
         <v>232</v>
       </c>
       <c r="F114" t="s">
+        <v>233</v>
+      </c>
+      <c r="G114" t="s">
         <v>264</v>
-      </c>
-      <c r="G114" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4700,10 +4700,10 @@
         <v>232</v>
       </c>
       <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" t="s">
         <v>278</v>
-      </c>
-      <c r="G115" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4723,10 +4723,10 @@
         <v>232</v>
       </c>
       <c r="F116" t="s">
+        <v>233</v>
+      </c>
+      <c r="G116" t="s">
         <v>282</v>
-      </c>
-      <c r="G116" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4746,10 +4746,10 @@
         <v>232</v>
       </c>
       <c r="F117" t="s">
+        <v>233</v>
+      </c>
+      <c r="G117" t="s">
         <v>286</v>
-      </c>
-      <c r="G117" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4769,10 +4769,10 @@
         <v>232</v>
       </c>
       <c r="F118" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" t="s">
         <v>286</v>
-      </c>
-      <c r="G118" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4792,10 +4792,10 @@
         <v>232</v>
       </c>
       <c r="F119" t="s">
+        <v>233</v>
+      </c>
+      <c r="G119" t="s">
         <v>286</v>
-      </c>
-      <c r="G119" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4815,10 +4815,10 @@
         <v>232</v>
       </c>
       <c r="F120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
         <v>286</v>
-      </c>
-      <c r="G120" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4838,10 +4838,10 @@
         <v>232</v>
       </c>
       <c r="F121" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" t="s">
         <v>286</v>
-      </c>
-      <c r="G121" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4861,10 +4861,10 @@
         <v>232</v>
       </c>
       <c r="F122" t="s">
+        <v>233</v>
+      </c>
+      <c r="G122" t="s">
         <v>286</v>
-      </c>
-      <c r="G122" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4884,10 +4884,10 @@
         <v>232</v>
       </c>
       <c r="F123" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" t="s">
         <v>286</v>
-      </c>
-      <c r="G123" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4904,13 +4904,13 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F124" t="s">
         <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4927,13 +4927,13 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F125" t="s">
         <v>302</v>
       </c>
       <c r="G125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4950,13 +4950,13 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F126" t="s">
         <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4973,13 +4973,13 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F127" t="s">
         <v>302</v>
       </c>
       <c r="G127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4996,13 +4996,13 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F128" t="s">
         <v>302</v>
       </c>
       <c r="G128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5019,13 +5019,13 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F129" t="s">
         <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5042,13 +5042,13 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F130" t="s">
         <v>316</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5065,13 +5065,13 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F131" t="s">
         <v>316</v>
       </c>
       <c r="G131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5088,13 +5088,13 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F132" t="s">
         <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5111,13 +5111,13 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F133" t="s">
         <v>316</v>
       </c>
       <c r="G133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5551,10 +5551,10 @@
         <v>326</v>
       </c>
       <c r="F152" t="s">
+        <v>327</v>
+      </c>
+      <c r="G152" t="s">
         <v>366</v>
-      </c>
-      <c r="G152" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5574,10 +5574,10 @@
         <v>326</v>
       </c>
       <c r="F153" t="s">
+        <v>327</v>
+      </c>
+      <c r="G153" t="s">
         <v>366</v>
-      </c>
-      <c r="G153" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5597,10 +5597,10 @@
         <v>326</v>
       </c>
       <c r="F154" t="s">
+        <v>327</v>
+      </c>
+      <c r="G154" t="s">
         <v>366</v>
-      </c>
-      <c r="G154" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5620,10 +5620,10 @@
         <v>326</v>
       </c>
       <c r="F155" t="s">
+        <v>327</v>
+      </c>
+      <c r="G155" t="s">
         <v>366</v>
-      </c>
-      <c r="G155" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5643,10 +5643,10 @@
         <v>326</v>
       </c>
       <c r="F156" t="s">
+        <v>327</v>
+      </c>
+      <c r="G156" t="s">
         <v>366</v>
-      </c>
-      <c r="G156" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5666,10 +5666,10 @@
         <v>326</v>
       </c>
       <c r="F157" t="s">
+        <v>327</v>
+      </c>
+      <c r="G157" t="s">
         <v>366</v>
-      </c>
-      <c r="G157" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5689,10 +5689,10 @@
         <v>326</v>
       </c>
       <c r="F158" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
         <v>380</v>
-      </c>
-      <c r="G158" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5712,10 +5712,10 @@
         <v>326</v>
       </c>
       <c r="F159" t="s">
+        <v>327</v>
+      </c>
+      <c r="G159" t="s">
         <v>380</v>
-      </c>
-      <c r="G159" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5735,10 +5735,10 @@
         <v>326</v>
       </c>
       <c r="F160" t="s">
+        <v>327</v>
+      </c>
+      <c r="G160" t="s">
         <v>380</v>
-      </c>
-      <c r="G160" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5758,10 +5758,10 @@
         <v>326</v>
       </c>
       <c r="F161" t="s">
+        <v>327</v>
+      </c>
+      <c r="G161" t="s">
         <v>380</v>
-      </c>
-      <c r="G161" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5781,10 +5781,10 @@
         <v>326</v>
       </c>
       <c r="F162" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162" t="s">
         <v>380</v>
-      </c>
-      <c r="G162" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6241,10 +6241,10 @@
         <v>392</v>
       </c>
       <c r="F182" t="s">
+        <v>393</v>
+      </c>
+      <c r="G182" t="s">
         <v>434</v>
-      </c>
-      <c r="G182" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6264,10 +6264,10 @@
         <v>392</v>
       </c>
       <c r="F183" t="s">
+        <v>393</v>
+      </c>
+      <c r="G183" t="s">
         <v>434</v>
-      </c>
-      <c r="G183" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6287,10 +6287,10 @@
         <v>392</v>
       </c>
       <c r="F184" t="s">
+        <v>393</v>
+      </c>
+      <c r="G184" t="s">
         <v>434</v>
-      </c>
-      <c r="G184" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6310,10 +6310,10 @@
         <v>392</v>
       </c>
       <c r="F185" t="s">
+        <v>393</v>
+      </c>
+      <c r="G185" t="s">
         <v>434</v>
-      </c>
-      <c r="G185" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6333,10 +6333,10 @@
         <v>392</v>
       </c>
       <c r="F186" t="s">
+        <v>393</v>
+      </c>
+      <c r="G186" t="s">
         <v>434</v>
-      </c>
-      <c r="G186" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6356,10 +6356,10 @@
         <v>392</v>
       </c>
       <c r="F187" t="s">
+        <v>393</v>
+      </c>
+      <c r="G187" t="s">
         <v>434</v>
-      </c>
-      <c r="G187" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6379,10 +6379,10 @@
         <v>392</v>
       </c>
       <c r="F188" t="s">
+        <v>393</v>
+      </c>
+      <c r="G188" t="s">
         <v>434</v>
-      </c>
-      <c r="G188" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6402,10 +6402,10 @@
         <v>392</v>
       </c>
       <c r="F189" t="s">
+        <v>393</v>
+      </c>
+      <c r="G189" t="s">
         <v>434</v>
-      </c>
-      <c r="G189" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6425,10 +6425,10 @@
         <v>392</v>
       </c>
       <c r="F190" t="s">
+        <v>393</v>
+      </c>
+      <c r="G190" t="s">
         <v>434</v>
-      </c>
-      <c r="G190" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6448,10 +6448,10 @@
         <v>392</v>
       </c>
       <c r="F191" t="s">
+        <v>393</v>
+      </c>
+      <c r="G191" t="s">
         <v>434</v>
-      </c>
-      <c r="G191" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6471,10 +6471,10 @@
         <v>392</v>
       </c>
       <c r="F192" t="s">
+        <v>393</v>
+      </c>
+      <c r="G192" t="s">
         <v>456</v>
-      </c>
-      <c r="G192" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6491,13 +6491,13 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F193" t="s">
         <v>460</v>
       </c>
       <c r="G193" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6514,13 +6514,13 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F194" t="s">
         <v>460</v>
       </c>
       <c r="G194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6537,13 +6537,13 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F195" t="s">
         <v>460</v>
       </c>
       <c r="G195" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6560,13 +6560,13 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F196" t="s">
         <v>460</v>
       </c>
       <c r="G196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6583,13 +6583,13 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F197" t="s">
         <v>460</v>
       </c>
       <c r="G197" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6606,13 +6606,13 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F198" t="s">
         <v>460</v>
       </c>
       <c r="G198" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6629,13 +6629,13 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F199" t="s">
         <v>474</v>
       </c>
       <c r="G199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6652,13 +6652,13 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F200" t="s">
         <v>478</v>
       </c>
       <c r="G200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6675,13 +6675,13 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F201" t="s">
         <v>478</v>
       </c>
       <c r="G201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6698,13 +6698,13 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F202" t="s">
         <v>478</v>
       </c>
       <c r="G202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6721,13 +6721,13 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F203" t="s">
         <v>478</v>
       </c>
       <c r="G203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6744,13 +6744,13 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F204" t="s">
         <v>478</v>
       </c>
       <c r="G204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6767,13 +6767,13 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F205" t="s">
         <v>478</v>
       </c>
       <c r="G205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6790,13 +6790,13 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F206" t="s">
         <v>492</v>
       </c>
       <c r="G206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6813,13 +6813,13 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F207" t="s">
         <v>492</v>
       </c>
       <c r="G207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6836,13 +6836,13 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F208" t="s">
         <v>492</v>
       </c>
       <c r="G208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6859,13 +6859,13 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F209" t="s">
         <v>492</v>
       </c>
       <c r="G209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6882,13 +6882,13 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F210" t="s">
         <v>492</v>
       </c>
       <c r="G210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6905,13 +6905,13 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F211" t="s">
         <v>492</v>
       </c>
       <c r="G211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6928,13 +6928,13 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F212" t="s">
         <v>492</v>
       </c>
       <c r="G212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6951,13 +6951,13 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F213" t="s">
         <v>492</v>
       </c>
       <c r="G213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6974,13 +6974,13 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F214" t="s">
         <v>492</v>
       </c>
       <c r="G214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6997,13 +6997,13 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F215" t="s">
         <v>492</v>
       </c>
       <c r="G215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7020,13 +7020,13 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F216" t="s">
         <v>514</v>
       </c>
       <c r="G216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7043,13 +7043,13 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F217" t="s">
         <v>518</v>
       </c>
       <c r="G217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7066,13 +7066,13 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F218" t="s">
         <v>522</v>
       </c>
       <c r="G218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7089,13 +7089,13 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F219" t="s">
         <v>522</v>
       </c>
       <c r="G219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7112,13 +7112,13 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F220" t="s">
         <v>528</v>
       </c>
       <c r="G220" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7135,13 +7135,13 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F221" t="s">
         <v>528</v>
       </c>
       <c r="G221" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7158,13 +7158,13 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F222" t="s">
         <v>528</v>
       </c>
       <c r="G222" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7181,13 +7181,13 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F223" t="s">
         <v>528</v>
       </c>
       <c r="G223" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7204,13 +7204,13 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F224" t="s">
         <v>528</v>
       </c>
       <c r="G224" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7227,13 +7227,13 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F225" t="s">
         <v>528</v>
       </c>
       <c r="G225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7250,13 +7250,13 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F226" t="s">
         <v>528</v>
       </c>
       <c r="G226" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7273,13 +7273,13 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F227" t="s">
         <v>544</v>
       </c>
       <c r="G227" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7296,13 +7296,13 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F228" t="s">
         <v>544</v>
       </c>
       <c r="G228" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7319,13 +7319,13 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F229" t="s">
         <v>544</v>
       </c>
       <c r="G229" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7342,13 +7342,13 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F230" t="s">
         <v>552</v>
       </c>
       <c r="G230" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7365,13 +7365,13 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F231" t="s">
         <v>556</v>
       </c>
       <c r="G231" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7388,13 +7388,13 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F232" t="s">
         <v>560</v>
       </c>
       <c r="G232" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7411,13 +7411,13 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F233" t="s">
         <v>564</v>
       </c>
       <c r="G233" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7434,13 +7434,13 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F234" t="s">
         <v>568</v>
       </c>
       <c r="G234" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7457,13 +7457,13 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F235" t="s">
         <v>568</v>
       </c>
       <c r="G235" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Educación, nivel no especificado</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Educación</t>
-  </si>
-  <si>
-    <t>Educación, nivel no especificado</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Educación primaria</t>
   </si>
   <si>
+    <t>Educación básica</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Educación básica</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Educación secundaria superior (modificada, incluye datos de 11322)</t>
   </si>
   <si>
+    <t>Educación secundaria</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Educación secundaria</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Educación superior</t>
   </si>
   <si>
+    <t>Educación post-secundaria</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Educación post-secundaria</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Gestión administrativa y políticas de la salud</t>
   </si>
   <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Salud, general</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Salud</t>
-  </si>
-  <si>
-    <t>Salud, general</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Atención sanitaria básica</t>
   </si>
   <si>
+    <t>Salud básica</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Salud básica</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Lucha contra enfermedades no transmisibles, general</t>
   </si>
   <si>
+    <t>Enfermedades no transmisibles</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Enfermedades no transmisibles</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Gestión administrativa y políticas en materia demográfica</t>
   </si>
   <si>
+    <t>Programas/políticas sobre población y salud reproductiva</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Programas/políticas sobre población y salud reproductiva</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Gestión administrativa y políticas del sector del agua</t>
   </si>
   <si>
+    <t>Abastecimiento de agua y saneamiento</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Abastecimiento de agua y saneamiento</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Gestión administrativa y políticas del sector público</t>
   </si>
   <si>
+    <t>Gobierno y sociedad civil</t>
+  </si>
+  <si>
+    <t>Gobierno y sociedad civil, general</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Gobierno y sociedad civil</t>
-  </si>
-  <si>
-    <t>Gobierno y sociedad civil, general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestión y reforma del sistema de seguridad</t>
   </si>
   <si>
+    <t>Prevención y resolución de conflictos, paz y seguridad</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Prevención y resolución de conflictos, paz y seguridad</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Protección social</t>
   </si>
   <si>
+    <t>Otros servicios e infraestructuras sociales</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Otros servicios e infraestructuras sociales</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Gestión administrativa y políticas del transporte</t>
   </si>
   <si>
+    <t>Transporte y almacenamiento</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transporte y almacenamiento</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Gestión administrativa y políticas de las comunicaciones</t>
   </si>
   <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Gestión administrativa y políticas de la energía</t>
   </si>
   <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Política energética</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Energía</t>
-  </si>
-  <si>
-    <t>Política energética</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Generación de energía, fuentes renovables: múltiples tecnologías</t>
   </si>
   <si>
+    <t>Generación de energía, fuentes renovables</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Generación de energía, fuentes renovables</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Generación de energía, fuentes no renovables, sin especificar</t>
   </si>
   <si>
+    <t>Generación de energía, fuentes no renovables</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Generación de energía, fuentes no renovables</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrales eléctricas de energía híbrida</t>
   </si>
   <si>
+    <t>Centrales de energía híbrida</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Centrales de energía híbrida</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrales eléctricas de energía nuclear y seguridad nuclear</t>
   </si>
   <si>
+    <t>Centrales de energía nuclear</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Centrales de energía nuclear</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrales de producción de calor</t>
   </si>
   <si>
+    <t>Distribución de la energía</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Distribución de la energía</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Gestión administrativa y políticas financieras</t>
   </si>
   <si>
+    <t>Servicios bancarios y financieros</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Servicios bancarios y financieros</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Políticas y administración empresariales</t>
   </si>
   <si>
+    <t>Empresas y otros servicios</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Empresas y otros servicios</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Gestión administrativa y políticas agrícolas</t>
   </si>
   <si>
+    <t>Agricultura, Silvicultura, Pesca</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Agricultura, Silvicultura, Pesca</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Gestión administrativa y políticas forestales</t>
   </si>
   <si>
+    <t>Silvicultura</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Silvicultura</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Gestión administrativa y políticas pesqueras</t>
   </si>
   <si>
+    <t>Pesca</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Pesca</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Gestión administrativa y políticas industriales</t>
   </si>
   <si>
+    <t>Industria, extractivas, construcción</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Industria, extractivas, construcción</t>
-  </si>
-  <si>
-    <t>Industria</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Gestión administrativa y políticas mineras o minerales</t>
   </si>
   <si>
+    <t>Industrias extractivas</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Industrias extractivas</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Gestión administrativa y políticas de la construcción</t>
   </si>
   <si>
+    <t>Construcción</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>Construcción</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del comercio</t>
   </si>
   <si>
+    <t>Política y regulación comercial</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Política y regulación comercial</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Gestión administrativa y políticas del turismo</t>
   </si>
   <si>
+    <t>Turismo</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Turismo</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del medio ambiente</t>
   </si>
   <si>
+    <t>Protección general medio ambiente</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>Protección general medio ambiente</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Asistencia multisectorial</t>
   </si>
   <si>
+    <t>Otras acciones multisectoriales</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Otras acciones multisectoriales</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Asistencia relacionada con el apoyo presupuestario general</t>
   </si>
   <si>
+    <t>Apoyo presupuestario general</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>Apoyo presupuestario general</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Asistencia alimentaria</t>
   </si>
   <si>
+    <t>Ayuda alimentaria para el desarrollo</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Ayuda alimentaria para el desarrollo</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoyo a importaciones (bienes de capital)</t>
   </si>
   <si>
+    <t>Otras ayudas en forma de suministro de bienes</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Otras ayudas en forma de suministro de bienes</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Acciones relativas a la deuda</t>
   </si>
   <si>
+    <t>Actividades relacionadas con la deuda</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Actividades relacionadas con la deuda</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Asistencia y servicios de socorro material</t>
   </si>
   <si>
+    <t>Ayuda de emergencia</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Ayuda de emergencia</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstrucción y rehabilitación inmediata posemergencias</t>
   </si>
   <si>
+    <t>Ayuda a la reconstrucción y a la rehabilitación</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Ayuda a la reconstrucción y a la rehabilitación</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparación de respuesta multirriesgos</t>
   </si>
   <si>
+    <t>Prevención de desastres</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Prevención de desastres</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Costos administrativos (no asignable por sectores)</t>
   </si>
   <si>
+    <t>Costes administrativos donantes</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Costes administrativos donantes</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados o solicitantes de asilo en países donantes (no asignable por sectores)</t>
   </si>
   <si>
+    <t>Ayuda a refugiados en el país donante</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Ayuda a refugiados en el país donante</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectores no especificados</t>
   </si>
   <si>
+    <t>Sin especificación / no clasificados</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Sin especificación / no clasificados</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2213,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2236,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2259,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2282,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2305,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2328,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2351,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2374,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2397,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2420,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2693,10 +2693,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2716,10 +2716,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2739,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2762,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2785,10 +2785,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2808,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2831,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2854,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3613,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
         <v>167</v>
-      </c>
-      <c r="E68" t="s">
-        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
@@ -3636,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
         <v>167</v>
-      </c>
-      <c r="E69" t="s">
-        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -3659,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
         <v>167</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
@@ -3682,10 +3682,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
         <v>167</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
@@ -3705,10 +3705,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
         <v>167</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
@@ -3728,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
         <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
@@ -4349,10 +4349,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" t="s">
         <v>243</v>
-      </c>
-      <c r="E100" t="s">
-        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
@@ -4372,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
         <v>243</v>
-      </c>
-      <c r="E101" t="s">
-        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -4395,10 +4395,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" t="s">
         <v>243</v>
-      </c>
-      <c r="E102" t="s">
-        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
@@ -4418,10 +4418,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" t="s">
         <v>243</v>
-      </c>
-      <c r="E103" t="s">
-        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
@@ -4441,10 +4441,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
         <v>243</v>
-      </c>
-      <c r="E104" t="s">
-        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
@@ -4464,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" t="s">
         <v>243</v>
-      </c>
-      <c r="E105" t="s">
-        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
@@ -4487,10 +4487,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" t="s">
         <v>243</v>
-      </c>
-      <c r="E106" t="s">
-        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
@@ -4510,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" t="s">
         <v>243</v>
-      </c>
-      <c r="E107" t="s">
-        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
@@ -4533,10 +4533,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
         <v>243</v>
-      </c>
-      <c r="E108" t="s">
-        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
@@ -4556,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" t="s">
         <v>263</v>
-      </c>
-      <c r="E109" t="s">
-        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
@@ -4579,10 +4579,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
         <v>263</v>
-      </c>
-      <c r="E110" t="s">
-        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
@@ -4602,10 +4602,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
         <v>263</v>
-      </c>
-      <c r="E111" t="s">
-        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
@@ -4625,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
         <v>263</v>
-      </c>
-      <c r="E112" t="s">
-        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
@@ -4648,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
         <v>263</v>
-      </c>
-      <c r="E113" t="s">
-        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
@@ -4671,10 +4671,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
         <v>263</v>
-      </c>
-      <c r="E114" t="s">
-        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
@@ -4694,10 +4694,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
         <v>277</v>
-      </c>
-      <c r="E115" t="s">
-        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
@@ -4717,10 +4717,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
         <v>281</v>
-      </c>
-      <c r="E116" t="s">
-        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
@@ -4740,10 +4740,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
         <v>285</v>
-      </c>
-      <c r="E117" t="s">
-        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
@@ -4763,10 +4763,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
         <v>285</v>
-      </c>
-      <c r="E118" t="s">
-        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
@@ -4786,10 +4786,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
         <v>285</v>
-      </c>
-      <c r="E119" t="s">
-        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
@@ -4809,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
         <v>285</v>
-      </c>
-      <c r="E120" t="s">
-        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
@@ -4832,10 +4832,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" t="s">
         <v>285</v>
-      </c>
-      <c r="E121" t="s">
-        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
@@ -4855,10 +4855,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
         <v>285</v>
-      </c>
-      <c r="E122" t="s">
-        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
@@ -4878,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
         <v>285</v>
-      </c>
-      <c r="E123" t="s">
-        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
@@ -5545,10 +5545,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
         <v>365</v>
-      </c>
-      <c r="E152" t="s">
-        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
@@ -5568,10 +5568,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
         <v>365</v>
-      </c>
-      <c r="E153" t="s">
-        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
@@ -5591,10 +5591,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
-      </c>
-      <c r="E154" t="s">
-        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
@@ -5614,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
         <v>365</v>
-      </c>
-      <c r="E155" t="s">
-        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
@@ -5637,10 +5637,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
         <v>365</v>
-      </c>
-      <c r="E156" t="s">
-        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
@@ -5660,10 +5660,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
         <v>365</v>
-      </c>
-      <c r="E157" t="s">
-        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
@@ -5683,10 +5683,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
         <v>379</v>
-      </c>
-      <c r="E158" t="s">
-        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
@@ -5706,10 +5706,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
-      </c>
-      <c r="E159" t="s">
-        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
@@ -5729,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
         <v>379</v>
-      </c>
-      <c r="E160" t="s">
-        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
@@ -5752,10 +5752,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
         <v>379</v>
-      </c>
-      <c r="E161" t="s">
-        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
@@ -5775,10 +5775,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
         <v>379</v>
-      </c>
-      <c r="E162" t="s">
-        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
@@ -6235,10 +6235,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" t="s">
         <v>433</v>
-      </c>
-      <c r="E182" t="s">
-        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" t="s">
         <v>433</v>
-      </c>
-      <c r="E183" t="s">
-        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
@@ -6281,10 +6281,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" t="s">
         <v>433</v>
-      </c>
-      <c r="E184" t="s">
-        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
@@ -6304,10 +6304,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" t="s">
         <v>433</v>
-      </c>
-      <c r="E185" t="s">
-        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
@@ -6327,10 +6327,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
         <v>433</v>
-      </c>
-      <c r="E186" t="s">
-        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
@@ -6350,10 +6350,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
         <v>433</v>
-      </c>
-      <c r="E187" t="s">
-        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
@@ -6373,10 +6373,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" t="s">
         <v>433</v>
-      </c>
-      <c r="E188" t="s">
-        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
@@ -6396,10 +6396,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" t="s">
         <v>433</v>
-      </c>
-      <c r="E189" t="s">
-        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
@@ -6419,10 +6419,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" t="s">
         <v>433</v>
-      </c>
-      <c r="E190" t="s">
-        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
@@ -6442,10 +6442,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
         <v>433</v>
-      </c>
-      <c r="E191" t="s">
-        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
@@ -6465,10 +6465,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
         <v>455</v>
-      </c>
-      <c r="E192" t="s">
-        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educación</t>
   </si>
   <si>
     <t>Educación, nivel no especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Educación primaria</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Educación básica</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Educación secundaria superior (modificada, incluye datos de 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Educación secundaria</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Educación superior</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Educación post-secundaria</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Gestión administrativa y políticas de la salud</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Salud</t>
   </si>
   <si>
     <t>Salud, general</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Atención sanitaria básica</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Salud básica</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Lucha contra enfermedades no transmisibles, general</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Enfermedades no transmisibles</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Gestión administrativa y políticas en materia demográfica</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Programas/políticas sobre población y salud reproductiva</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Gestión administrativa y políticas del sector del agua</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Abastecimiento de agua y saneamiento</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -409,18 +409,18 @@
     <t>Gestión administrativa y políticas del sector público</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Gobierno y sociedad civil</t>
   </si>
   <si>
     <t>Gobierno y sociedad civil, general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Gestión y reforma del sistema de seguridad</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Prevención y resolución de conflictos, paz y seguridad</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>Protección social</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Otros servicios e infraestructuras sociales</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -631,12 +631,12 @@
     <t>Gestión administrativa y políticas del transporte</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transporte y almacenamiento</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>Gestión administrativa y políticas de las comunicaciones</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Comunicaciones</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -709,18 +709,18 @@
     <t>Gestión administrativa y políticas de la energía</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energía</t>
   </si>
   <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Generación de energía, fuentes renovables: múltiples tecnologías</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Generación de energía, fuentes renovables</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Generación de energía, fuentes no renovables, sin especificar</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Generación de energía, fuentes no renovables</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -847,36 +847,36 @@
     <t>Centrales eléctricas de energía híbrida</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Centrales de energía híbrida</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Centrales eléctricas de energía nuclear y seguridad nuclear</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Centrales de energía nuclear</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Centrales de producción de calor</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Distribución de la energía</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Gestión administrativa y políticas financieras</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Servicios bancarios y financieros</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Políticas y administración empresariales</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Empresas y otros servicios</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Gestión administrativa y políticas agrícolas</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Gestión administrativa y políticas forestales</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Silvicultura</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Gestión administrativa y políticas pesqueras</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Pesca</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Gestión administrativa y políticas industriales</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industria, extractivas, construcción</t>
   </si>
   <si>
     <t>Industria</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Gestión administrativa y políticas mineras o minerales</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Industrias extractivas</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Gestión administrativa y políticas de la construcción</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construcción</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del comercio</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Política y regulación comercial</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Gestión administrativa y políticas del turismo</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Turismo</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Gestión administrativa y políticas del medio ambiente</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Protección general medio ambiente</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Asistencia multisectorial</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Otras acciones multisectoriales</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Asistencia relacionada con el apoyo presupuestario general</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Apoyo presupuestario general</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Asistencia alimentaria</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Ayuda alimentaria para el desarrollo</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Apoyo a importaciones (bienes de capital)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Otras ayudas en forma de suministro de bienes</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Acciones relativas a la deuda</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Actividades relacionadas con la deuda</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Asistencia y servicios de socorro material</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Ayuda de emergencia</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstrucción y rehabilitación inmediata posemergencias</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Ayuda a la reconstrucción y a la rehabilitación</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Preparación de respuesta multirriesgos</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prevención de desastres</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Costos administrativos (no asignable por sectores)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Costes administrativos donantes</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiados o solicitantes de asilo en países donantes (no asignable por sectores)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Ayuda a refugiados en el país donante</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectores no especificados</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Sin especificación / no clasificados</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2213,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2236,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2259,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2282,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2305,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2328,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2351,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2374,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2397,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2420,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2693,10 +2693,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2716,10 +2716,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2739,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2762,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2785,10 +2785,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2808,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2831,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2854,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3613,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
@@ -3636,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -3659,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
@@ -3682,10 +3682,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
@@ -3705,10 +3705,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
@@ -3728,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
@@ -4349,10 +4349,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
@@ -4372,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -4395,10 +4395,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
@@ -4418,10 +4418,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
@@ -4441,10 +4441,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
@@ -4464,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
@@ -4487,10 +4487,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
@@ -4510,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
@@ -4533,10 +4533,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
@@ -4556,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
@@ -4579,10 +4579,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
@@ -4602,10 +4602,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
@@ -4625,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
@@ -4648,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
@@ -4671,10 +4671,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
@@ -4694,10 +4694,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
@@ -4717,10 +4717,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
@@ -4740,10 +4740,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
@@ -4763,10 +4763,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
@@ -4786,10 +4786,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
@@ -4809,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
@@ -4832,10 +4832,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
@@ -4855,10 +4855,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
@@ -4878,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
@@ -5545,10 +5545,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
@@ -5568,10 +5568,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
@@ -5591,10 +5591,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
@@ -5614,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
@@ -5637,10 +5637,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
@@ -5660,10 +5660,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
@@ -5683,10 +5683,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
@@ -5706,10 +5706,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
@@ -5729,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
@@ -5752,10 +5752,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
@@ -5775,10 +5775,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
@@ -6235,10 +6235,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
@@ -6281,10 +6281,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
@@ -6304,10 +6304,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
@@ -6327,10 +6327,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
@@ -6350,10 +6350,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
@@ -6373,10 +6373,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
@@ -6396,10 +6396,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
@@ -6419,10 +6419,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
@@ -6442,10 +6442,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
@@ -6465,10 +6465,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>Educación, nivel no especificado</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
     <t>Educación</t>
   </si>
   <si>
-    <t>Educación, nivel no especificado</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>Salud, general</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
     <t>Salud</t>
   </si>
   <si>
-    <t>Salud, general</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>Gobierno y sociedad civil, general</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
     <t>Gobierno y sociedad civil</t>
   </si>
   <si>
-    <t>Gobierno y sociedad civil, general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>Política energética</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
     <t>Energía</t>
   </si>
   <si>
-    <t>Política energética</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,13 +1192,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>Industria</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
     <t>Industria, extractivas, construcción</t>
-  </si>
-  <si>
-    <t>Industria</t>
   </si>
   <si>
     <t>32120</t>
@@ -2193,13 +2193,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,13 +2216,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,13 +2239,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,13 +2262,13 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,13 +2285,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,13 +2308,13 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,13 +2331,13 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,13 +2377,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,13 +2400,13 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,13 +2423,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2538,13 +2538,13 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2561,13 +2561,13 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,13 +2584,13 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,13 +2607,13 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,13 +2630,13 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,13 +2653,13 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,13 +2676,13 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2696,13 +2696,13 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2719,13 +2719,13 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2742,13 +2742,13 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2765,13 +2765,13 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2788,13 +2788,13 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2811,13 +2811,13 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2834,13 +2834,13 @@
         <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2857,13 +2857,13 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2880,10 +2880,10 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>95</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -2903,10 +2903,10 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -2926,10 +2926,10 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>95</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -2949,10 +2949,10 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -2972,10 +2972,10 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>96</v>
@@ -2995,10 +2995,10 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>108</v>
@@ -3018,10 +3018,10 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>107</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>108</v>
@@ -3041,10 +3041,10 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
         <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3064,10 +3064,10 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
         <v>107</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>108</v>
@@ -3087,10 +3087,10 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
         <v>107</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>108</v>
@@ -3110,10 +3110,10 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>107</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
       </c>
       <c r="G46" t="s">
         <v>108</v>
@@ -3133,10 +3133,10 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
         <v>107</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
       </c>
       <c r="G47" t="s">
         <v>108</v>
@@ -3156,10 +3156,10 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
         <v>107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>108</v>
@@ -3179,10 +3179,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
         <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>108</v>
@@ -3202,10 +3202,10 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>108</v>
@@ -3225,10 +3225,10 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
       </c>
       <c r="G51" t="s">
         <v>108</v>
@@ -3616,13 +3616,13 @@
         <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3639,13 +3639,13 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3662,13 +3662,13 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>133</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3685,13 +3685,13 @@
         <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
         <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3708,13 +3708,13 @@
         <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
         <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3731,13 +3731,13 @@
         <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3754,10 +3754,10 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
         <v>181</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
@@ -3777,10 +3777,10 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
         <v>181</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>182</v>
@@ -3800,10 +3800,10 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
         <v>181</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>182</v>
@@ -3823,10 +3823,10 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" t="s">
         <v>181</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>182</v>
@@ -3846,10 +3846,10 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
         <v>181</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
       </c>
       <c r="G78" t="s">
         <v>182</v>
@@ -3869,10 +3869,10 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" t="s">
         <v>181</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
       </c>
       <c r="G79" t="s">
         <v>182</v>
@@ -3892,10 +3892,10 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
         <v>181</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>182</v>
@@ -3915,10 +3915,10 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" t="s">
         <v>181</v>
-      </c>
-      <c r="F81" t="s">
-        <v>182</v>
       </c>
       <c r="G81" t="s">
         <v>182</v>
@@ -3938,10 +3938,10 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
         <v>181</v>
-      </c>
-      <c r="F82" t="s">
-        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>182</v>
@@ -3961,10 +3961,10 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>181</v>
-      </c>
-      <c r="F83" t="s">
-        <v>182</v>
       </c>
       <c r="G83" t="s">
         <v>182</v>
@@ -3984,10 +3984,10 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>181</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>182</v>
@@ -4007,10 +4007,10 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
         <v>205</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -4030,10 +4030,10 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>205</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -4053,10 +4053,10 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
         <v>205</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -4076,10 +4076,10 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>205</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -4099,10 +4099,10 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>205</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>206</v>
@@ -4122,10 +4122,10 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
         <v>205</v>
-      </c>
-      <c r="F90" t="s">
-        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>206</v>
@@ -4145,10 +4145,10 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>205</v>
-      </c>
-      <c r="F91" t="s">
-        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -4168,10 +4168,10 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
         <v>221</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>222</v>
@@ -4191,10 +4191,10 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
         <v>221</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
       </c>
       <c r="G93" t="s">
         <v>222</v>
@@ -4214,10 +4214,10 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
         <v>221</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
       </c>
       <c r="G94" t="s">
         <v>222</v>
@@ -4237,10 +4237,10 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
         <v>221</v>
-      </c>
-      <c r="F95" t="s">
-        <v>222</v>
       </c>
       <c r="G95" t="s">
         <v>222</v>
@@ -4352,13 +4352,13 @@
         <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F100" t="s">
         <v>233</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4375,13 +4375,13 @@
         <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4398,13 +4398,13 @@
         <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F102" t="s">
         <v>233</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4421,13 +4421,13 @@
         <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F103" t="s">
         <v>233</v>
       </c>
       <c r="G103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4444,13 +4444,13 @@
         <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
         <v>233</v>
       </c>
       <c r="G104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4467,13 +4467,13 @@
         <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F105" t="s">
         <v>233</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4490,13 +4490,13 @@
         <v>243</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F106" t="s">
         <v>233</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4513,13 +4513,13 @@
         <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s">
         <v>233</v>
       </c>
       <c r="G107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4536,13 +4536,13 @@
         <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
         <v>233</v>
       </c>
       <c r="G108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4559,13 +4559,13 @@
         <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
         <v>233</v>
       </c>
       <c r="G109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4582,13 +4582,13 @@
         <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
         <v>233</v>
       </c>
       <c r="G110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4605,13 +4605,13 @@
         <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F111" t="s">
         <v>233</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4628,13 +4628,13 @@
         <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
         <v>233</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4651,13 +4651,13 @@
         <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
         <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4674,13 +4674,13 @@
         <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4697,13 +4697,13 @@
         <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4720,13 +4720,13 @@
         <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F116" t="s">
         <v>233</v>
       </c>
       <c r="G116" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4743,13 +4743,13 @@
         <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
         <v>233</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4766,13 +4766,13 @@
         <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F118" t="s">
         <v>233</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4789,13 +4789,13 @@
         <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
         <v>233</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4812,13 +4812,13 @@
         <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4835,13 +4835,13 @@
         <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
         <v>233</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4858,13 +4858,13 @@
         <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F122" t="s">
         <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4881,13 +4881,13 @@
         <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F123" t="s">
         <v>233</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4904,10 +4904,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
         <v>301</v>
-      </c>
-      <c r="F124" t="s">
-        <v>302</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4927,10 +4927,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
         <v>301</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4950,10 +4950,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>301</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4973,10 +4973,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" t="s">
         <v>301</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4996,10 +4996,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
         <v>301</v>
-      </c>
-      <c r="F128" t="s">
-        <v>302</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5019,10 +5019,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" t="s">
         <v>301</v>
-      </c>
-      <c r="F129" t="s">
-        <v>302</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5042,10 +5042,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
         <v>315</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5065,10 +5065,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>316</v>
+      </c>
+      <c r="F131" t="s">
         <v>315</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5088,10 +5088,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" t="s">
         <v>315</v>
-      </c>
-      <c r="F132" t="s">
-        <v>316</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5111,10 +5111,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" t="s">
         <v>315</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5548,13 +5548,13 @@
         <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
       </c>
       <c r="G152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5571,13 +5571,13 @@
         <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
       </c>
       <c r="G153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5594,13 +5594,13 @@
         <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
       </c>
       <c r="G154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5617,13 +5617,13 @@
         <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5640,13 +5640,13 @@
         <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5663,13 +5663,13 @@
         <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5686,13 +5686,13 @@
         <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5709,13 +5709,13 @@
         <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5732,13 +5732,13 @@
         <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5778,13 +5778,13 @@
         <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6238,13 +6238,13 @@
         <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
       </c>
       <c r="G182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6261,13 +6261,13 @@
         <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6284,13 +6284,13 @@
         <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
       </c>
       <c r="G184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6307,13 +6307,13 @@
         <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6330,13 +6330,13 @@
         <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6353,13 +6353,13 @@
         <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6376,13 +6376,13 @@
         <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6399,13 +6399,13 @@
         <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
       </c>
       <c r="G189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6422,13 +6422,13 @@
         <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
       </c>
       <c r="G190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6445,13 +6445,13 @@
         <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6468,13 +6468,13 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6491,10 +6491,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
         <v>459</v>
-      </c>
-      <c r="F193" t="s">
-        <v>460</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6514,10 +6514,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
         <v>459</v>
-      </c>
-      <c r="F194" t="s">
-        <v>460</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6537,10 +6537,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" t="s">
         <v>459</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6560,10 +6560,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" t="s">
         <v>459</v>
-      </c>
-      <c r="F196" t="s">
-        <v>460</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6583,10 +6583,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>460</v>
+      </c>
+      <c r="F197" t="s">
         <v>459</v>
-      </c>
-      <c r="F197" t="s">
-        <v>460</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6606,10 +6606,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>460</v>
+      </c>
+      <c r="F198" t="s">
         <v>459</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6629,10 +6629,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>474</v>
+      </c>
+      <c r="F199" t="s">
         <v>473</v>
-      </c>
-      <c r="F199" t="s">
-        <v>474</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6652,10 +6652,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" t="s">
         <v>477</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6675,10 +6675,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" t="s">
         <v>477</v>
-      </c>
-      <c r="F201" t="s">
-        <v>478</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6698,10 +6698,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
         <v>477</v>
-      </c>
-      <c r="F202" t="s">
-        <v>478</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6721,10 +6721,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>478</v>
+      </c>
+      <c r="F203" t="s">
         <v>477</v>
-      </c>
-      <c r="F203" t="s">
-        <v>478</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6744,10 +6744,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" t="s">
         <v>477</v>
-      </c>
-      <c r="F204" t="s">
-        <v>478</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6767,10 +6767,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>478</v>
+      </c>
+      <c r="F205" t="s">
         <v>477</v>
-      </c>
-      <c r="F205" t="s">
-        <v>478</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6790,10 +6790,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>492</v>
+      </c>
+      <c r="F206" t="s">
         <v>491</v>
-      </c>
-      <c r="F206" t="s">
-        <v>492</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6813,10 +6813,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>492</v>
+      </c>
+      <c r="F207" t="s">
         <v>491</v>
-      </c>
-      <c r="F207" t="s">
-        <v>492</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6836,10 +6836,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>492</v>
+      </c>
+      <c r="F208" t="s">
         <v>491</v>
-      </c>
-      <c r="F208" t="s">
-        <v>492</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6859,10 +6859,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" t="s">
         <v>491</v>
-      </c>
-      <c r="F209" t="s">
-        <v>492</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6882,10 +6882,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>492</v>
+      </c>
+      <c r="F210" t="s">
         <v>491</v>
-      </c>
-      <c r="F210" t="s">
-        <v>492</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6905,10 +6905,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>492</v>
+      </c>
+      <c r="F211" t="s">
         <v>491</v>
-      </c>
-      <c r="F211" t="s">
-        <v>492</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6928,10 +6928,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>492</v>
+      </c>
+      <c r="F212" t="s">
         <v>491</v>
-      </c>
-      <c r="F212" t="s">
-        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6951,10 +6951,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>492</v>
+      </c>
+      <c r="F213" t="s">
         <v>491</v>
-      </c>
-      <c r="F213" t="s">
-        <v>492</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6974,10 +6974,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>492</v>
+      </c>
+      <c r="F214" t="s">
         <v>491</v>
-      </c>
-      <c r="F214" t="s">
-        <v>492</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -6997,10 +6997,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>492</v>
+      </c>
+      <c r="F215" t="s">
         <v>491</v>
-      </c>
-      <c r="F215" t="s">
-        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7020,10 +7020,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" t="s">
         <v>513</v>
-      </c>
-      <c r="F216" t="s">
-        <v>514</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7043,10 +7043,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" t="s">
         <v>517</v>
-      </c>
-      <c r="F217" t="s">
-        <v>518</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7066,10 +7066,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>522</v>
+      </c>
+      <c r="F218" t="s">
         <v>521</v>
-      </c>
-      <c r="F218" t="s">
-        <v>522</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7089,10 +7089,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>522</v>
+      </c>
+      <c r="F219" t="s">
         <v>521</v>
-      </c>
-      <c r="F219" t="s">
-        <v>522</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7112,10 +7112,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>528</v>
+      </c>
+      <c r="F220" t="s">
         <v>527</v>
-      </c>
-      <c r="F220" t="s">
-        <v>528</v>
       </c>
       <c r="G220" t="s">
         <v>528</v>
@@ -7135,10 +7135,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>528</v>
+      </c>
+      <c r="F221" t="s">
         <v>527</v>
-      </c>
-      <c r="F221" t="s">
-        <v>528</v>
       </c>
       <c r="G221" t="s">
         <v>528</v>
@@ -7158,10 +7158,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>528</v>
+      </c>
+      <c r="F222" t="s">
         <v>527</v>
-      </c>
-      <c r="F222" t="s">
-        <v>528</v>
       </c>
       <c r="G222" t="s">
         <v>528</v>
@@ -7181,10 +7181,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>528</v>
+      </c>
+      <c r="F223" t="s">
         <v>527</v>
-      </c>
-      <c r="F223" t="s">
-        <v>528</v>
       </c>
       <c r="G223" t="s">
         <v>528</v>
@@ -7204,10 +7204,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>528</v>
+      </c>
+      <c r="F224" t="s">
         <v>527</v>
-      </c>
-      <c r="F224" t="s">
-        <v>528</v>
       </c>
       <c r="G224" t="s">
         <v>528</v>
@@ -7227,10 +7227,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>528</v>
+      </c>
+      <c r="F225" t="s">
         <v>527</v>
-      </c>
-      <c r="F225" t="s">
-        <v>528</v>
       </c>
       <c r="G225" t="s">
         <v>528</v>
@@ -7250,10 +7250,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>528</v>
+      </c>
+      <c r="F226" t="s">
         <v>527</v>
-      </c>
-      <c r="F226" t="s">
-        <v>528</v>
       </c>
       <c r="G226" t="s">
         <v>528</v>
@@ -7273,10 +7273,10 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
+        <v>544</v>
+      </c>
+      <c r="F227" t="s">
         <v>543</v>
-      </c>
-      <c r="F227" t="s">
-        <v>544</v>
       </c>
       <c r="G227" t="s">
         <v>544</v>
@@ -7296,10 +7296,10 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" t="s">
         <v>543</v>
-      </c>
-      <c r="F228" t="s">
-        <v>544</v>
       </c>
       <c r="G228" t="s">
         <v>544</v>
@@ -7319,10 +7319,10 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" t="s">
         <v>543</v>
-      </c>
-      <c r="F229" t="s">
-        <v>544</v>
       </c>
       <c r="G229" t="s">
         <v>544</v>
@@ -7342,10 +7342,10 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" t="s">
         <v>551</v>
-      </c>
-      <c r="F230" t="s">
-        <v>552</v>
       </c>
       <c r="G230" t="s">
         <v>552</v>
@@ -7365,10 +7365,10 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
+        <v>556</v>
+      </c>
+      <c r="F231" t="s">
         <v>555</v>
-      </c>
-      <c r="F231" t="s">
-        <v>556</v>
       </c>
       <c r="G231" t="s">
         <v>556</v>
@@ -7388,10 +7388,10 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
+        <v>560</v>
+      </c>
+      <c r="F232" t="s">
         <v>559</v>
-      </c>
-      <c r="F232" t="s">
-        <v>560</v>
       </c>
       <c r="G232" t="s">
         <v>560</v>
@@ -7411,10 +7411,10 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
+        <v>564</v>
+      </c>
+      <c r="F233" t="s">
         <v>563</v>
-      </c>
-      <c r="F233" t="s">
-        <v>564</v>
       </c>
       <c r="G233" t="s">
         <v>564</v>
@@ -7434,10 +7434,10 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
+        <v>568</v>
+      </c>
+      <c r="F234" t="s">
         <v>567</v>
-      </c>
-      <c r="F234" t="s">
-        <v>568</v>
       </c>
       <c r="G234" t="s">
         <v>568</v>
@@ -7457,10 +7457,10 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
+        <v>568</v>
+      </c>
+      <c r="F235" t="s">
         <v>567</v>
-      </c>
-      <c r="F235" t="s">
-        <v>568</v>
       </c>
       <c r="G235" t="s">
         <v>568</v>

--- a/api/clv3/xlsx/es/SectorGroup.xlsx
+++ b/api/clv3/xlsx/es/SectorGroup.xlsx
@@ -28,12 +28,12 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
@@ -49,12 +49,12 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Educación, nivel no especificado</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Educación</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Salud, general</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>Salud</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Gobierno y sociedad civil, general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>Gobierno y sociedad civil</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Política energética</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>Energía</t>
   </si>
   <si>
@@ -994,12 +994,12 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agricultura</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>Agricultura, Silvicultura, Pesca</t>
   </si>
   <si>
@@ -1192,10 +1192,10 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industria</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>Industria, extractivas, construcción</t>
@@ -2193,10 +2193,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2216,10 +2216,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2239,10 +2239,10 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2262,10 +2262,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2285,10 +2285,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2308,10 +2308,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2331,10 +2331,10 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2354,10 +2354,10 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2377,10 +2377,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2400,10 +2400,10 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2423,10 +2423,10 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2538,10 +2538,10 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -2561,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2584,10 +2584,10 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2607,10 +2607,10 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -2630,10 +2630,10 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -2653,10 +2653,10 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -2676,10 +2676,10 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -2696,10 +2696,10 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -2719,10 +2719,10 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -2742,10 +2742,10 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
         <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -2765,10 +2765,10 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
         <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -2788,10 +2788,10 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2811,10 +2811,10 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
         <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>53</v>
@@ -2834,10 +2834,10 @@
         <v>81</v>
       </c>
       <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
         <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2857,10 +2857,10 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
         <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -2880,10 +2880,10 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -2903,10 +2903,10 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -2926,10 +2926,10 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -2949,10 +2949,10 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -2972,10 +2972,10 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>95</v>
       </c>
       <c r="G40" t="s">
         <v>96</v>
@@ -2995,10 +2995,10 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>107</v>
       </c>
       <c r="G41" t="s">
         <v>108</v>
@@ -3018,10 +3018,10 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
         <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>107</v>
       </c>
       <c r="G42" t="s">
         <v>108</v>
@@ -3041,10 +3041,10 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
         <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>107</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3064,10 +3064,10 @@
         <v>107</v>
       </c>
       <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
       </c>
       <c r="G44" t="s">
         <v>108</v>
@@ -3087,10 +3087,10 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>107</v>
       </c>
       <c r="G45" t="s">
         <v>108</v>
@@ -3110,10 +3110,10 @@
         <v>107</v>
       </c>
       <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>107</v>
       </c>
       <c r="G46" t="s">
         <v>108</v>
@@ -3133,10 +3133,10 @@
         <v>107</v>
       </c>
       <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
         <v>108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>107</v>
       </c>
       <c r="G47" t="s">
         <v>108</v>
@@ -3156,10 +3156,10 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>107</v>
       </c>
       <c r="G48" t="s">
         <v>108</v>
@@ -3179,10 +3179,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>108</v>
@@ -3202,10 +3202,10 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>107</v>
       </c>
       <c r="G50" t="s">
         <v>108</v>
@@ -3225,10 +3225,10 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
       </c>
       <c r="G51" t="s">
         <v>108</v>
@@ -3616,10 +3616,10 @@
         <v>167</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>168</v>
-      </c>
-      <c r="F68" t="s">
-        <v>133</v>
       </c>
       <c r="G68" t="s">
         <v>134</v>
@@ -3639,10 +3639,10 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>168</v>
-      </c>
-      <c r="F69" t="s">
-        <v>133</v>
       </c>
       <c r="G69" t="s">
         <v>134</v>
@@ -3662,10 +3662,10 @@
         <v>167</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>168</v>
-      </c>
-      <c r="F70" t="s">
-        <v>133</v>
       </c>
       <c r="G70" t="s">
         <v>134</v>
@@ -3685,10 +3685,10 @@
         <v>167</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>168</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
       </c>
       <c r="G71" t="s">
         <v>134</v>
@@ -3708,10 +3708,10 @@
         <v>167</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>168</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
       </c>
       <c r="G72" t="s">
         <v>134</v>
@@ -3731,10 +3731,10 @@
         <v>167</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>168</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
       </c>
       <c r="G73" t="s">
         <v>134</v>
@@ -3754,10 +3754,10 @@
         <v>181</v>
       </c>
       <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74" t="s">
         <v>182</v>
-      </c>
-      <c r="F74" t="s">
-        <v>181</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
@@ -3777,10 +3777,10 @@
         <v>181</v>
       </c>
       <c r="E75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
-      </c>
-      <c r="F75" t="s">
-        <v>181</v>
       </c>
       <c r="G75" t="s">
         <v>182</v>
@@ -3800,10 +3800,10 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" t="s">
         <v>182</v>
-      </c>
-      <c r="F76" t="s">
-        <v>181</v>
       </c>
       <c r="G76" t="s">
         <v>182</v>
@@ -3823,10 +3823,10 @@
         <v>181</v>
       </c>
       <c r="E77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" t="s">
-        <v>181</v>
       </c>
       <c r="G77" t="s">
         <v>182</v>
@@ -3846,10 +3846,10 @@
         <v>181</v>
       </c>
       <c r="E78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>181</v>
       </c>
       <c r="G78" t="s">
         <v>182</v>
@@ -3869,10 +3869,10 @@
         <v>181</v>
       </c>
       <c r="E79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
         <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>181</v>
       </c>
       <c r="G79" t="s">
         <v>182</v>
@@ -3892,10 +3892,10 @@
         <v>181</v>
       </c>
       <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
         <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>181</v>
       </c>
       <c r="G80" t="s">
         <v>182</v>
@@ -3915,10 +3915,10 @@
         <v>181</v>
       </c>
       <c r="E81" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" t="s">
         <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>181</v>
       </c>
       <c r="G81" t="s">
         <v>182</v>
@@ -3938,10 +3938,10 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" t="s">
         <v>182</v>
-      </c>
-      <c r="F82" t="s">
-        <v>181</v>
       </c>
       <c r="G82" t="s">
         <v>182</v>
@@ -3961,10 +3961,10 @@
         <v>181</v>
       </c>
       <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
         <v>182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>181</v>
       </c>
       <c r="G83" t="s">
         <v>182</v>
@@ -3984,10 +3984,10 @@
         <v>181</v>
       </c>
       <c r="E84" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" t="s">
         <v>182</v>
-      </c>
-      <c r="F84" t="s">
-        <v>181</v>
       </c>
       <c r="G84" t="s">
         <v>182</v>
@@ -4007,10 +4007,10 @@
         <v>205</v>
       </c>
       <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>205</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -4030,10 +4030,10 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>205</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -4053,10 +4053,10 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" t="s">
         <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>205</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -4076,10 +4076,10 @@
         <v>205</v>
       </c>
       <c r="E88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
         <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>205</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -4099,10 +4099,10 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
       </c>
       <c r="G89" t="s">
         <v>206</v>
@@ -4122,10 +4122,10 @@
         <v>205</v>
       </c>
       <c r="E90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>205</v>
       </c>
       <c r="G90" t="s">
         <v>206</v>
@@ -4145,10 +4145,10 @@
         <v>205</v>
       </c>
       <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
         <v>206</v>
-      </c>
-      <c r="F91" t="s">
-        <v>205</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -4168,10 +4168,10 @@
         <v>221</v>
       </c>
       <c r="E92" t="s">
+        <v>221</v>
+      </c>
+      <c r="F92" t="s">
         <v>222</v>
-      </c>
-      <c r="F92" t="s">
-        <v>221</v>
       </c>
       <c r="G92" t="s">
         <v>222</v>
@@ -4191,10 +4191,10 @@
         <v>221</v>
       </c>
       <c r="E93" t="s">
+        <v>221</v>
+      </c>
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>221</v>
       </c>
       <c r="G93" t="s">
         <v>222</v>
@@ -4214,10 +4214,10 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" t="s">
         <v>222</v>
-      </c>
-      <c r="F94" t="s">
-        <v>221</v>
       </c>
       <c r="G94" t="s">
         <v>222</v>
@@ -4237,10 +4237,10 @@
         <v>221</v>
       </c>
       <c r="E95" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>221</v>
       </c>
       <c r="G95" t="s">
         <v>222</v>
@@ -4352,10 +4352,10 @@
         <v>243</v>
       </c>
       <c r="E100" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" t="s">
         <v>244</v>
-      </c>
-      <c r="F100" t="s">
-        <v>233</v>
       </c>
       <c r="G100" t="s">
         <v>234</v>
@@ -4375,10 +4375,10 @@
         <v>243</v>
       </c>
       <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" t="s">
         <v>244</v>
-      </c>
-      <c r="F101" t="s">
-        <v>233</v>
       </c>
       <c r="G101" t="s">
         <v>234</v>
@@ -4398,10 +4398,10 @@
         <v>243</v>
       </c>
       <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
         <v>244</v>
-      </c>
-      <c r="F102" t="s">
-        <v>233</v>
       </c>
       <c r="G102" t="s">
         <v>234</v>
@@ -4421,10 +4421,10 @@
         <v>243</v>
       </c>
       <c r="E103" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" t="s">
         <v>244</v>
-      </c>
-      <c r="F103" t="s">
-        <v>233</v>
       </c>
       <c r="G103" t="s">
         <v>234</v>
@@ -4444,10 +4444,10 @@
         <v>243</v>
       </c>
       <c r="E104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F104" t="s">
         <v>244</v>
-      </c>
-      <c r="F104" t="s">
-        <v>233</v>
       </c>
       <c r="G104" t="s">
         <v>234</v>
@@ -4467,10 +4467,10 @@
         <v>243</v>
       </c>
       <c r="E105" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" t="s">
         <v>244</v>
-      </c>
-      <c r="F105" t="s">
-        <v>233</v>
       </c>
       <c r="G105" t="s">
         <v>234</v>
@@ -4490,10 +4490,10 @@
         <v>243</v>
       </c>
       <c r="E106" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" t="s">
         <v>244</v>
-      </c>
-      <c r="F106" t="s">
-        <v>233</v>
       </c>
       <c r="G106" t="s">
         <v>234</v>
@@ -4513,10 +4513,10 @@
         <v>243</v>
       </c>
       <c r="E107" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" t="s">
         <v>244</v>
-      </c>
-      <c r="F107" t="s">
-        <v>233</v>
       </c>
       <c r="G107" t="s">
         <v>234</v>
@@ -4536,10 +4536,10 @@
         <v>243</v>
       </c>
       <c r="E108" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" t="s">
         <v>244</v>
-      </c>
-      <c r="F108" t="s">
-        <v>233</v>
       </c>
       <c r="G108" t="s">
         <v>234</v>
@@ -4559,10 +4559,10 @@
         <v>263</v>
       </c>
       <c r="E109" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" t="s">
         <v>264</v>
-      </c>
-      <c r="F109" t="s">
-        <v>233</v>
       </c>
       <c r="G109" t="s">
         <v>234</v>
@@ -4582,10 +4582,10 @@
         <v>263</v>
       </c>
       <c r="E110" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110" t="s">
         <v>264</v>
-      </c>
-      <c r="F110" t="s">
-        <v>233</v>
       </c>
       <c r="G110" t="s">
         <v>234</v>
@@ -4605,10 +4605,10 @@
         <v>263</v>
       </c>
       <c r="E111" t="s">
+        <v>232</v>
+      </c>
+      <c r="F111" t="s">
         <v>264</v>
-      </c>
-      <c r="F111" t="s">
-        <v>233</v>
       </c>
       <c r="G111" t="s">
         <v>234</v>
@@ -4628,10 +4628,10 @@
         <v>263</v>
       </c>
       <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" t="s">
         <v>264</v>
-      </c>
-      <c r="F112" t="s">
-        <v>233</v>
       </c>
       <c r="G112" t="s">
         <v>234</v>
@@ -4651,10 +4651,10 @@
         <v>263</v>
       </c>
       <c r="E113" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" t="s">
         <v>264</v>
-      </c>
-      <c r="F113" t="s">
-        <v>233</v>
       </c>
       <c r="G113" t="s">
         <v>234</v>
@@ -4674,10 +4674,10 @@
         <v>263</v>
       </c>
       <c r="E114" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" t="s">
         <v>264</v>
-      </c>
-      <c r="F114" t="s">
-        <v>233</v>
       </c>
       <c r="G114" t="s">
         <v>234</v>
@@ -4697,10 +4697,10 @@
         <v>277</v>
       </c>
       <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
         <v>278</v>
-      </c>
-      <c r="F115" t="s">
-        <v>233</v>
       </c>
       <c r="G115" t="s">
         <v>234</v>
@@ -4720,10 +4720,10 @@
         <v>281</v>
       </c>
       <c r="E116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" t="s">
         <v>282</v>
-      </c>
-      <c r="F116" t="s">
-        <v>233</v>
       </c>
       <c r="G116" t="s">
         <v>234</v>
@@ -4743,10 +4743,10 @@
         <v>285</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>286</v>
-      </c>
-      <c r="F117" t="s">
-        <v>233</v>
       </c>
       <c r="G117" t="s">
         <v>234</v>
@@ -4766,10 +4766,10 @@
         <v>285</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>286</v>
-      </c>
-      <c r="F118" t="s">
-        <v>233</v>
       </c>
       <c r="G118" t="s">
         <v>234</v>
@@ -4789,10 +4789,10 @@
         <v>285</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>286</v>
-      </c>
-      <c r="F119" t="s">
-        <v>233</v>
       </c>
       <c r="G119" t="s">
         <v>234</v>
@@ -4812,10 +4812,10 @@
         <v>285</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>286</v>
-      </c>
-      <c r="F120" t="s">
-        <v>233</v>
       </c>
       <c r="G120" t="s">
         <v>234</v>
@@ -4835,10 +4835,10 @@
         <v>285</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>286</v>
-      </c>
-      <c r="F121" t="s">
-        <v>233</v>
       </c>
       <c r="G121" t="s">
         <v>234</v>
@@ -4858,10 +4858,10 @@
         <v>285</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>286</v>
-      </c>
-      <c r="F122" t="s">
-        <v>233</v>
       </c>
       <c r="G122" t="s">
         <v>234</v>
@@ -4881,10 +4881,10 @@
         <v>285</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>286</v>
-      </c>
-      <c r="F123" t="s">
-        <v>233</v>
       </c>
       <c r="G123" t="s">
         <v>234</v>
@@ -4904,10 +4904,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" t="s">
         <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>301</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4927,10 +4927,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>301</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4950,10 +4950,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126" t="s">
         <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>301</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4973,10 +4973,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127" t="s">
         <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4996,10 +4996,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128" t="s">
         <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>301</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5019,10 +5019,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129" t="s">
         <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>301</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5042,10 +5042,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" t="s">
         <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>315</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5065,10 +5065,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" t="s">
         <v>316</v>
-      </c>
-      <c r="F131" t="s">
-        <v>315</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5088,10 +5088,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" t="s">
         <v>316</v>
-      </c>
-      <c r="F132" t="s">
-        <v>315</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5111,10 +5111,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
-      </c>
-      <c r="F133" t="s">
-        <v>315</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5548,10 +5548,10 @@
         <v>365</v>
       </c>
       <c r="E152" t="s">
+        <v>326</v>
+      </c>
+      <c r="F152" t="s">
         <v>366</v>
-      </c>
-      <c r="F152" t="s">
-        <v>327</v>
       </c>
       <c r="G152" t="s">
         <v>328</v>
@@ -5571,10 +5571,10 @@
         <v>365</v>
       </c>
       <c r="E153" t="s">
+        <v>326</v>
+      </c>
+      <c r="F153" t="s">
         <v>366</v>
-      </c>
-      <c r="F153" t="s">
-        <v>327</v>
       </c>
       <c r="G153" t="s">
         <v>328</v>
@@ -5594,10 +5594,10 @@
         <v>365</v>
       </c>
       <c r="E154" t="s">
+        <v>326</v>
+      </c>
+      <c r="F154" t="s">
         <v>366</v>
-      </c>
-      <c r="F154" t="s">
-        <v>327</v>
       </c>
       <c r="G154" t="s">
         <v>328</v>
@@ -5617,10 +5617,10 @@
         <v>365</v>
       </c>
       <c r="E155" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" t="s">
         <v>366</v>
-      </c>
-      <c r="F155" t="s">
-        <v>327</v>
       </c>
       <c r="G155" t="s">
         <v>328</v>
@@ -5640,10 +5640,10 @@
         <v>365</v>
       </c>
       <c r="E156" t="s">
+        <v>326</v>
+      </c>
+      <c r="F156" t="s">
         <v>366</v>
-      </c>
-      <c r="F156" t="s">
-        <v>327</v>
       </c>
       <c r="G156" t="s">
         <v>328</v>
@@ -5663,10 +5663,10 @@
         <v>365</v>
       </c>
       <c r="E157" t="s">
+        <v>326</v>
+      </c>
+      <c r="F157" t="s">
         <v>366</v>
-      </c>
-      <c r="F157" t="s">
-        <v>327</v>
       </c>
       <c r="G157" t="s">
         <v>328</v>
@@ -5686,10 +5686,10 @@
         <v>379</v>
       </c>
       <c r="E158" t="s">
+        <v>326</v>
+      </c>
+      <c r="F158" t="s">
         <v>380</v>
-      </c>
-      <c r="F158" t="s">
-        <v>327</v>
       </c>
       <c r="G158" t="s">
         <v>328</v>
@@ -5709,10 +5709,10 @@
         <v>379</v>
       </c>
       <c r="E159" t="s">
+        <v>326</v>
+      </c>
+      <c r="F159" t="s">
         <v>380</v>
-      </c>
-      <c r="F159" t="s">
-        <v>327</v>
       </c>
       <c r="G159" t="s">
         <v>328</v>
@@ -5732,10 +5732,10 @@
         <v>379</v>
       </c>
       <c r="E160" t="s">
+        <v>326</v>
+      </c>
+      <c r="F160" t="s">
         <v>380</v>
-      </c>
-      <c r="F160" t="s">
-        <v>327</v>
       </c>
       <c r="G160" t="s">
         <v>328</v>
@@ -5755,10 +5755,10 @@
         <v>379</v>
       </c>
       <c r="E161" t="s">
+        <v>326</v>
+      </c>
+      <c r="F161" t="s">
         <v>380</v>
-      </c>
-      <c r="F161" t="s">
-        <v>327</v>
       </c>
       <c r="G161" t="s">
         <v>328</v>
@@ -5778,10 +5778,10 @@
         <v>379</v>
       </c>
       <c r="E162" t="s">
+        <v>326</v>
+      </c>
+      <c r="F162" t="s">
         <v>380</v>
-      </c>
-      <c r="F162" t="s">
-        <v>327</v>
       </c>
       <c r="G162" t="s">
         <v>328</v>
@@ -6238,10 +6238,10 @@
         <v>433</v>
       </c>
       <c r="E182" t="s">
+        <v>392</v>
+      </c>
+      <c r="F182" t="s">
         <v>434</v>
-      </c>
-      <c r="F182" t="s">
-        <v>393</v>
       </c>
       <c r="G182" t="s">
         <v>394</v>
@@ -6261,10 +6261,10 @@
         <v>433</v>
       </c>
       <c r="E183" t="s">
+        <v>392</v>
+      </c>
+      <c r="F183" t="s">
         <v>434</v>
-      </c>
-      <c r="F183" t="s">
-        <v>393</v>
       </c>
       <c r="G183" t="s">
         <v>394</v>
@@ -6284,10 +6284,10 @@
         <v>433</v>
       </c>
       <c r="E184" t="s">
+        <v>392</v>
+      </c>
+      <c r="F184" t="s">
         <v>434</v>
-      </c>
-      <c r="F184" t="s">
-        <v>393</v>
       </c>
       <c r="G184" t="s">
         <v>394</v>
@@ -6307,10 +6307,10 @@
         <v>433</v>
       </c>
       <c r="E185" t="s">
+        <v>392</v>
+      </c>
+      <c r="F185" t="s">
         <v>434</v>
-      </c>
-      <c r="F185" t="s">
-        <v>393</v>
       </c>
       <c r="G185" t="s">
         <v>394</v>
@@ -6330,10 +6330,10 @@
         <v>433</v>
       </c>
       <c r="E186" t="s">
+        <v>392</v>
+      </c>
+      <c r="F186" t="s">
         <v>434</v>
-      </c>
-      <c r="F186" t="s">
-        <v>393</v>
       </c>
       <c r="G186" t="s">
         <v>394</v>
@@ -6353,10 +6353,10 @@
         <v>433</v>
       </c>
       <c r="E187" t="s">
+        <v>392</v>
+      </c>
+      <c r="F187" t="s">
         <v>434</v>
-      </c>
-      <c r="F187" t="s">
-        <v>393</v>
       </c>
       <c r="G187" t="s">
         <v>394</v>
@@ -6376,10 +6376,10 @@
         <v>433</v>
       </c>
       <c r="E188" t="s">
+        <v>392</v>
+      </c>
+      <c r="F188" t="s">
         <v>434</v>
-      </c>
-      <c r="F188" t="s">
-        <v>393</v>
       </c>
       <c r="G188" t="s">
         <v>394</v>
@@ -6399,10 +6399,10 @@
         <v>433</v>
       </c>
       <c r="E189" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" t="s">
         <v>434</v>
-      </c>
-      <c r="F189" t="s">
-        <v>393</v>
       </c>
       <c r="G189" t="s">
         <v>394</v>
@@ -6422,10 +6422,10 @@
         <v>433</v>
       </c>
       <c r="E190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F190" t="s">
         <v>434</v>
-      </c>
-      <c r="F190" t="s">
-        <v>393</v>
       </c>
       <c r="G190" t="s">
         <v>394</v>
@@ -6445,10 +6445,10 @@
         <v>433</v>
       </c>
       <c r="E191" t="s">
+        <v>392</v>
+      </c>
+      <c r="F191" t="s">
         <v>434</v>
-      </c>
-      <c r="F191" t="s">
-        <v>393</v>
       </c>
       <c r="G191" t="s">
         <v>394</v>
@@ -6468,10 +6468,10 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
+        <v>392</v>
+      </c>
+      <c r="F192" t="s">
         <v>456</v>
-      </c>
-      <c r="F192" t="s">
-        <v>393</v>
       </c>
       <c r="G192" t="s">
         <v>394</v>
@@ -6491,10 +6491,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>459</v>
+      </c>
+      <c r="F193" t="s">
         <v>460</v>
-      </c>
-      <c r="F193" t="s">
-        <v>459</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6514,10 +6514,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>459</v>
+      </c>
+      <c r="F194" t="s">
         <v>460</v>
-      </c>
-      <c r="F194" t="s">
-        <v>459</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6537,10 +6537,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>459</v>
+      </c>
+      <c r="F195" t="s">
         <v>460</v>
-      </c>
-      <c r="F195" t="s">
-        <v>459</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6560,10 +6560,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>459</v>
+      </c>
+      <c r="F196" t="s">
         <v>460</v>
-      </c>
-      <c r="F196" t="s">
-        <v>459</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6583,10 +6583,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>459</v>
+      </c>
+      <c r="F197" t="s">
         <v>460</v>
-      </c>
-      <c r="F197" t="s">
-        <v>459</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6606,10 +6606,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>459</v>
+      </c>
+      <c r="F198" t="s">
         <v>460</v>
-      </c>
-      <c r="F198" t="s">
-        <v>459</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6629,10 +6629,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>473</v>
+      </c>
+      <c r="F199" t="s">
         <v>474</v>
-      </c>
-      <c r="F199" t="s">
-        <v>473</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6652,10 +6652,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>477</v>
+      </c>
+      <c r="F200" t="s">
         <v>478</v>
-      </c>
-      <c r="F200" t="s">
-        <v>477</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6675,10 +6675,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>477</v>
+      </c>
+      <c r="F201" t="s">
         <v>478</v>
-      </c>
-      <c r="F201" t="s">
-        <v>477</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6698,10 +6698,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>477</v>
+      </c>
+      <c r="F202" t="s">
         <v>478</v>
-      </c>
-      <c r="F202" t="s">
-        <v>477</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6721,10 +6721,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>477</v>
+      </c>
+      <c r="F203" t="s">
         <v>478</v>
-      </c>
-      <c r="F203" t="s">
-        <v>477</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6744,10 +6744,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>477</v>
+      </c>
+      <c r="F204" t="s">
         <v>478</v>
-      </c>
-      <c r="F204" t="s">
-        <v>477</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6767,10 +6767,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>477</v>
+      </c>
+      <c r="F205" t="s">
         <v>478</v>
-      </c>
-      <c r="F205" t="s">
-        <v>477</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6790,10 +6790,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>491</v>
+      </c>
+      <c r="F206" t="s">
         <v>492</v>
-      </c>
-      <c r="F206" t="s">
-        <v>491</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6813,10 +6813,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>491</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="F207" t="s">
-        <v>491</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6836,10 +6836,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>491</v>
+      </c>
+      <c r="F208" t="s">
         <v>492</v>
-      </c>
-      <c r="F208" t="s">
-        <v>491</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6859,10 +6859,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>491</v>
+      </c>
+      <c r="F209" t="s">
         <v>492</v>
-      </c>
-      <c r="F209" t="s">
-        <v>491</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6882,10 +6882,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>491</v>
+      </c>
+      <c r="F210" t="s">
         <v>492</v>
-      </c>
-      <c r="F210" t="s">
-        <v>491</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6905,10 +6905,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>491</v>
+      </c>
+      <c r="F211" t="s">
         <v>492</v>
-      </c>
-      <c r="F211" t="s">
-        <v>491</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6928,10 +6928,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>491</v>
+      </c>
+      <c r="F212" t="s">
         <v>492</v>
-      </c>
-      <c r="F212" t="s">
-        <v>491</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6951,10 +6951,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>491</v>
+      </c>
+      <c r="F213" t="s">
         <v>492</v>
-      </c>
-      <c r="F213" t="s">
-        <v>491</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6974,10 +6974,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>491</v>
+      </c>
+      <c r="F214" t="s">
         <v>492</v>
-      </c>
-      <c r="F214" t="s">
-        <v>491</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -6997,10 +6997,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>491</v>
+      </c>
+      <c r="F215" t="s">
         <v>492</v>
-      </c>
-      <c r="F215" t="s">
-        <v>491</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7020,10 +7020,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>513</v>
+      </c>
+      <c r="F216" t="s">
         <v>514</v>
-      </c>
-      <c r="F216" t="s">
-        <v>513</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7043,10 +7043,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>517</v>
+      </c>
+      <c r="F217" t="s">
         <v>518</v>
-      </c>
-      <c r="F217" t="s">
-        <v>517</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7066,10 +7066,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>521</v>
+      </c>
+      <c r="F218" t="s">
         <v>522</v>
-      </c>
-      <c r="F218" t="s">
-        <v>521</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7089,10 +7089,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>521</v>
+      </c>
+      <c r="F219" t="s">
         <v>522</v>
-      </c>
-      <c r="F219" t="s">
-        <v>521</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7112,10 +7112,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>527</v>
+      </c>
+      <c r="F220" t="s">
         <v>528</v>
-      </c>
-      <c r="F220" t="s">
-        <v>527</v>
       </c>
       <c r="G220" t="s">
         <v>528</v>
@@ -7135,10 +7135,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>527</v>
+      </c>
+      <c r="F221" t="s">
         <v>528</v>
-      </c>
-      <c r="F221" t="s">
-        <v>527</v>
       </c>
       <c r="G221" t="s">
         <v>528</v>
@@ -7158,10 +7158,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>527</v>
+      </c>
+      <c r="F222" t="s">
         <v>528</v>
-      </c>
-      <c r="F222" t="s">
-        <v>527</v>
       </c>
       <c r="G222" t="s">
         <v>528</v>
@@ -7181,10 +7181,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>527</v>
+      </c>
+      <c r="F223" t="s">
         <v>528</v>
-      </c>
-      <c r="F223" t="s">
-        <v>527</v>
       </c>
       <c r="G223" t="s">
         <v>528</v>
@@ -7204,10 +7204,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>527</v>
+      </c>
+      <c r="F224" t="s">
         <v>528</v>
-      </c>
-      <c r="F224" t="s">
-        <v>527</v>
       </c>
       <c r="G224" t="s">
         <v>528</v>
@@ -7227,10 +7227,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>527</v>
+      </c>
+      <c r="F225" t="s">
         <v>528</v>
-      </c>
-      <c r="F225" t="s">
-        <v>527</v>
       </c>
       <c r="G225" t="s">
         <v>528</v>
@@ -7250,10 +7250,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>527</v>
+      </c>
+      <c r="F226" t="s">
         <v>528</v>
-      </c>
-      <c r="F226" t="s">
-        <v>527</v>
       </c>
       <c r="G226" t="s">
         <v>528</v>
@@ -7273,10 +7273,10 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
+        <v>543</v>
+      </c>
+      <c r="F227" t="s">
         <v>544</v>
-      </c>
-      <c r="F227" t="s">
-        <v>543</v>
       </c>
       <c r="G227" t="s">
         <v>544</v>
@@ -7296,10 +7296,10 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
+        <v>543</v>
+      </c>
+      <c r="F228" t="s">
         <v>544</v>
-      </c>
-      <c r="F228" t="s">
-        <v>543</v>
       </c>
       <c r="G228" t="s">
         <v>544</v>
@@ -7319,10 +7319,10 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
+        <v>543</v>
+      </c>
+      <c r="F229" t="s">
         <v>544</v>
-      </c>
-      <c r="F229" t="s">
-        <v>543</v>
       </c>
       <c r="G229" t="s">
         <v>544</v>
@@ -7342,10 +7342,10 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
+        <v>551</v>
+      </c>
+      <c r="F230" t="s">
         <v>552</v>
-      </c>
-      <c r="F230" t="s">
-        <v>551</v>
       </c>
       <c r="G230" t="s">
         <v>552</v>
@@ -7365,10 +7365,10 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
+        <v>555</v>
+      </c>
+      <c r="F231" t="s">
         <v>556</v>
-      </c>
-      <c r="F231" t="s">
-        <v>555</v>
       </c>
       <c r="G231" t="s">
         <v>556</v>
@@ -7388,10 +7388,10 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
+        <v>559</v>
+      </c>
+      <c r="F232" t="s">
         <v>560</v>
-      </c>
-      <c r="F232" t="s">
-        <v>559</v>
       </c>
       <c r="G232" t="s">
         <v>560</v>
@@ -7411,10 +7411,10 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
+        <v>563</v>
+      </c>
+      <c r="F233" t="s">
         <v>564</v>
-      </c>
-      <c r="F233" t="s">
-        <v>563</v>
       </c>
       <c r="G233" t="s">
         <v>564</v>
@@ -7434,10 +7434,10 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
+        <v>567</v>
+      </c>
+      <c r="F234" t="s">
         <v>568</v>
-      </c>
-      <c r="F234" t="s">
-        <v>567</v>
       </c>
       <c r="G234" t="s">
         <v>568</v>
@@ -7457,10 +7457,10 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
+        <v>567</v>
+      </c>
+      <c r="F235" t="s">
         <v>568</v>
-      </c>
-      <c r="F235" t="s">
-        <v>567</v>
       </c>
       <c r="G235" t="s">
         <v>568</v>
